--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_19_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_19_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1103889.354842106</v>
+        <v>1159399.875839357</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10905484.71396393</v>
+        <v>10905484.71396392</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13131190.42752637</v>
+        <v>13131190.42752638</v>
       </c>
     </row>
     <row r="9">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>49.52666035605198</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3.391294858661553</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T11" t="n">
         <v>212.8881935747402</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>208.8010834284284</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1499,22 +1499,22 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>53.84494476251661</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V12" t="n">
         <v>224.2073995125313</v>
       </c>
       <c r="W12" t="n">
-        <v>224.2073995125313</v>
+        <v>215.9162917996914</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>30.96607875162312</v>
+        <v>48.86640447242515</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>224.2073995125313</v>
@@ -1593,7 +1593,7 @@
         <v>224.2073995125313</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,73 +1606,73 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>208.8010834284285</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>212.8881935747402</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>224.2073995125313</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="X14" t="n">
         <v>224.2073995125313</v>
-      </c>
-      <c r="F14" t="n">
-        <v>38.20745441826074</v>
-      </c>
-      <c r="G14" t="n">
-        <v>224.2073995125313</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.391294858661581</v>
-      </c>
-      <c r="S14" t="n">
-        <v>155.8831282137152</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.71338891834274</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1733,25 +1733,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.69423906687435</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>148.5086638144743</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U15" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>224.2073995125313</v>
+        <v>87.64941656736504</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>127.6527559620251</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8356460106874</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="W16" t="n">
         <v>224.2073995125313</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>49.52666035605173</v>
       </c>
       <c r="G17" t="n">
         <v>224.2073995125313</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>120.5773955598971</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.39129485866161</v>
+        <v>3.391294858661581</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>224.2073995125313</v>
-      </c>
-      <c r="V17" t="n">
-        <v>73.51318707207876</v>
-      </c>
-      <c r="W17" t="n">
-        <v>224.2073995125313</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>20.78045854735483</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V18" t="n">
         <v>224.2073995125313</v>
       </c>
       <c r="W18" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>9.901086086155134</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9449935067779</v>
+        <v>164.4256472612256</v>
       </c>
       <c r="H19" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S19" t="n">
         <v>205.787917330861</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>50.40723675968096</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>224.2073995125312</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>3.391294858661581</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T20" t="n">
-        <v>194.0905826319758</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U20" t="n">
-        <v>224.2073995125312</v>
+        <v>49.52666035605156</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2162,22 +2162,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>97.63308192142031</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>74.60184355000058</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.69423906687435</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U21" t="n">
         <v>224.2073995125312</v>
       </c>
       <c r="V21" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>11.46218481557662</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.9948276785279</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>224.2073995125312</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.68357562814247</v>
       </c>
       <c r="W22" t="n">
         <v>224.2073995125312</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="E23" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>194.0905826319759</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>194.0905826319758</v>
+        <v>224.2073995125313</v>
       </c>
     </row>
     <row r="24">
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.69423906687435</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U24" t="n">
-        <v>224.2073995125312</v>
+        <v>39.30516228258176</v>
       </c>
       <c r="V24" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="X24" t="n">
-        <v>174.787638423763</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.63929577162544</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>142.4913261317534</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>205.787917330861</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U25" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="C26" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U26" t="n">
-        <v>197.4818774906373</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>52.91795521471324</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>137.0847436434235</v>
+        <v>10.23359602238687</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V27" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.427975439642</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>38.17937172935915</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>194.0905826319759</v>
       </c>
       <c r="C29" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3.391294858661581</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>197.4818774906373</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>8.254454773895663</v>
+        <v>52.73734742392259</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>22.69423906687435</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U30" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>224.2073995125312</v>
+        <v>94.71658302613491</v>
       </c>
       <c r="W31" t="n">
-        <v>224.2073995125312</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.38091966831349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>224.2073995125313</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>49.52666035605173</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>3.391294858661581</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T32" t="n">
         <v>212.8881935747402</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="X32" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>208.8010834284285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3125,7 +3125,7 @@
         <v>136.0958695452709</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>46.44034425129606</v>
@@ -3158,7 +3158,7 @@
         <v>22.69423906687435</v>
       </c>
       <c r="S33" t="n">
-        <v>148.5086638144743</v>
+        <v>71.38961174634366</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="X33" t="n">
-        <v>123.6648865185307</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.1566696208391</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>38.17937172935937</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>224.2073995125313</v>
@@ -3316,22 +3316,22 @@
         <v>3.391294858661581</v>
       </c>
       <c r="S35" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>49.52666035605167</v>
+        <v>194.0905826319759</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>46.71572738407209</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>6.509895385534776</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>127.7427176551299</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>224.2073995125313</v>
       </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>114.6441540420461</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="G38" t="n">
         <v>224.2073995125313</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>52.9179552147133</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.8881935747402</v>
+        <v>197.4818774906374</v>
       </c>
       <c r="U38" t="n">
         <v>224.2073995125313</v>
@@ -3587,16 +3587,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>129.1749990451461</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>22.69423906687435</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>211.7467564680438</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V39" t="n">
         <v>224.2073995125313</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>166.9449935067779</v>
       </c>
       <c r="H40" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>123.9948276785279</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>56.60839991769515</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>185.6461843273919</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>224.2073995125312</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.4097885697667</v>
       </c>
       <c r="F41" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>49.52666035605173</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>3.391294858661581</v>
       </c>
       <c r="S41" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>212.8881935747402</v>
       </c>
       <c r="U41" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>224.2073995125312</v>
       </c>
     </row>
     <row r="42">
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3875,16 +3875,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.2073995125313</v>
+        <v>224.2073995125312</v>
       </c>
       <c r="V42" t="n">
-        <v>224.2073995125313</v>
+        <v>140.5241950645138</v>
       </c>
       <c r="W42" t="n">
-        <v>215.9162917996913</v>
+        <v>224.2073995125312</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S43" t="n">
-        <v>197.4818774906374</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U43" t="n">
-        <v>224.2073995125313</v>
+        <v>222.3291139334875</v>
       </c>
       <c r="V43" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>73.51318707207876</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>224.2073995125313</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>194.0905826319758</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>224.2073995125313</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.5773955598971</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>224.2073995125313</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>30.42148383664675</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>46.44034425129606</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>224.2073995125313</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>44.01722995426547</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>52.58874713132428</v>
+        <v>197.4818774906374</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>470.8808334004597</v>
+        <v>67.96352161358027</v>
       </c>
       <c r="C11" t="n">
-        <v>244.4087126807311</v>
+        <v>67.96352161358027</v>
       </c>
       <c r="D11" t="n">
-        <v>17.9365919610025</v>
+        <v>67.96352161358027</v>
       </c>
       <c r="E11" t="n">
-        <v>17.9365919610025</v>
+        <v>67.96352161358027</v>
       </c>
       <c r="F11" t="n">
-        <v>17.9365919610025</v>
+        <v>67.96352161358027</v>
       </c>
       <c r="G11" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H11" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I11" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J11" t="n">
         <v>34.63453816531478</v>
       </c>
       <c r="K11" t="n">
-        <v>110.3989492755376</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L11" t="n">
-        <v>241.2931626632194</v>
+        <v>241.2931626632197</v>
       </c>
       <c r="M11" t="n">
-        <v>418.6076331159535</v>
+        <v>418.6076331159537</v>
       </c>
       <c r="N11" t="n">
-        <v>603.4050454560171</v>
+        <v>603.4050454560172</v>
       </c>
       <c r="O11" t="n">
-        <v>764.5687404436248</v>
+        <v>764.5687404436252</v>
       </c>
       <c r="P11" t="n">
-        <v>867.6172246027302</v>
+        <v>867.6172246027305</v>
       </c>
       <c r="Q11" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="R11" t="n">
-        <v>896.829598050125</v>
+        <v>893.4040476878409</v>
       </c>
       <c r="S11" t="n">
-        <v>896.829598050125</v>
+        <v>735.946342421462</v>
       </c>
       <c r="T11" t="n">
-        <v>681.7910186817005</v>
+        <v>520.9077630530376</v>
       </c>
       <c r="U11" t="n">
-        <v>681.7910186817005</v>
+        <v>294.4356423333089</v>
       </c>
       <c r="V11" t="n">
-        <v>681.7910186817005</v>
+        <v>294.4356423333089</v>
       </c>
       <c r="W11" t="n">
-        <v>681.7910186817005</v>
+        <v>294.4356423333089</v>
       </c>
       <c r="X11" t="n">
-        <v>470.8808334004597</v>
+        <v>67.96352161358027</v>
       </c>
       <c r="Y11" t="n">
-        <v>470.8808334004597</v>
+        <v>67.96352161358027</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>192.3896212421295</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="C12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="D12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="E12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="F12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="G12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I12" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J12" t="n">
-        <v>17.9365919610025</v>
+        <v>64.32476682722847</v>
       </c>
       <c r="K12" t="n">
-        <v>127.3147945504698</v>
+        <v>127.3147945504699</v>
       </c>
       <c r="L12" t="n">
-        <v>258.3352014317578</v>
+        <v>258.335201431758</v>
       </c>
       <c r="M12" t="n">
-        <v>430.5867046011363</v>
+        <v>430.5867046011365</v>
       </c>
       <c r="N12" t="n">
-        <v>621.8058374248112</v>
+        <v>621.8058374248114</v>
       </c>
       <c r="O12" t="n">
-        <v>774.5141910698749</v>
+        <v>774.5141910698751</v>
       </c>
       <c r="P12" t="n">
-        <v>877.7430416330334</v>
+        <v>877.7430416330337</v>
       </c>
       <c r="Q12" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="R12" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="S12" t="n">
-        <v>842.4407649566739</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="T12" t="n">
-        <v>645.3338626815867</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="U12" t="n">
-        <v>645.3338626815867</v>
+        <v>670.3574773303967</v>
       </c>
       <c r="V12" t="n">
-        <v>418.8617419618581</v>
+        <v>443.8853566106681</v>
       </c>
       <c r="W12" t="n">
-        <v>192.3896212421295</v>
+        <v>225.7880921665353</v>
       </c>
       <c r="X12" t="n">
-        <v>192.3896212421295</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="Y12" t="n">
-        <v>192.3896212421295</v>
+        <v>17.93659196100251</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>218.1516423147914</v>
+        <v>217.4132358909394</v>
       </c>
       <c r="C13" t="n">
-        <v>49.21545938688445</v>
+        <v>217.4132358909394</v>
       </c>
       <c r="D13" t="n">
-        <v>49.21545938688445</v>
+        <v>67.29659647860367</v>
       </c>
       <c r="E13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="F13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="G13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="H13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="I13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="J13" t="n">
-        <v>17.9365919610025</v>
+        <v>17.93659196100251</v>
       </c>
       <c r="K13" t="n">
         <v>116.1990877137129</v>
@@ -5208,43 +5208,43 @@
         <v>297.4676862869273</v>
       </c>
       <c r="M13" t="n">
-        <v>498.9791308439496</v>
+        <v>401.4209243811775</v>
       </c>
       <c r="N13" t="n">
-        <v>701.1337000714838</v>
+        <v>603.5754936087117</v>
       </c>
       <c r="O13" t="n">
-        <v>871.8398689037915</v>
+        <v>774.2816624410194</v>
       </c>
       <c r="P13" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="Q13" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="R13" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="S13" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="T13" t="n">
-        <v>671.0958837542485</v>
+        <v>896.8295980501254</v>
       </c>
       <c r="U13" t="n">
-        <v>444.6237630345199</v>
+        <v>670.3574773303967</v>
       </c>
       <c r="V13" t="n">
-        <v>444.6237630345199</v>
+        <v>670.3574773303967</v>
       </c>
       <c r="W13" t="n">
-        <v>218.1516423147914</v>
+        <v>443.8853566106681</v>
       </c>
       <c r="X13" t="n">
-        <v>218.1516423147914</v>
+        <v>217.4132358909394</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.1516423147914</v>
+        <v>217.4132358909394</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>735.9463424214616</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="C14" t="n">
-        <v>509.4742217017331</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="D14" t="n">
-        <v>509.4742217017331</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="E14" t="n">
-        <v>283.0021009820045</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F14" t="n">
-        <v>244.4087126807311</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G14" t="n">
         <v>17.9365919610025</v>
@@ -5302,28 +5302,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R14" t="n">
-        <v>893.4040476878406</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S14" t="n">
-        <v>735.9463424214616</v>
+        <v>896.829598050125</v>
       </c>
       <c r="T14" t="n">
-        <v>735.9463424214616</v>
+        <v>681.7910186817005</v>
       </c>
       <c r="U14" t="n">
-        <v>735.9463424214616</v>
+        <v>681.7910186817005</v>
       </c>
       <c r="V14" t="n">
-        <v>735.9463424214616</v>
+        <v>681.7910186817005</v>
       </c>
       <c r="W14" t="n">
-        <v>735.9463424214616</v>
+        <v>455.318897961972</v>
       </c>
       <c r="X14" t="n">
-        <v>735.9463424214616</v>
+        <v>228.8467772422434</v>
       </c>
       <c r="Y14" t="n">
-        <v>735.9463424214616</v>
+        <v>228.8467772422434</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.9365919610025</v>
+        <v>461.1791802378264</v>
       </c>
       <c r="C15" t="n">
-        <v>17.9365919610025</v>
+        <v>461.1791802378264</v>
       </c>
       <c r="D15" t="n">
-        <v>17.9365919610025</v>
+        <v>461.1791802378264</v>
       </c>
       <c r="E15" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="F15" t="n">
-        <v>17.9365919610025</v>
+        <v>155.4071672592559</v>
       </c>
       <c r="G15" t="n">
         <v>17.9365919610025</v>
@@ -5363,46 +5363,46 @@
         <v>80.92661968424392</v>
       </c>
       <c r="L15" t="n">
-        <v>211.9470265655319</v>
+        <v>258.3352014317578</v>
       </c>
       <c r="M15" t="n">
-        <v>384.1985297349104</v>
+        <v>430.5867046011363</v>
       </c>
       <c r="N15" t="n">
-        <v>575.4176625585853</v>
+        <v>621.8058374248112</v>
       </c>
       <c r="O15" t="n">
-        <v>728.126016203649</v>
+        <v>774.5141910698749</v>
       </c>
       <c r="P15" t="n">
-        <v>831.3548667668075</v>
+        <v>877.7430416330334</v>
       </c>
       <c r="Q15" t="n">
         <v>896.829598050125</v>
       </c>
       <c r="R15" t="n">
-        <v>873.9061242452015</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S15" t="n">
-        <v>723.8973729174497</v>
+        <v>746.8208467223733</v>
       </c>
       <c r="T15" t="n">
-        <v>723.8973729174497</v>
+        <v>549.7139444472861</v>
       </c>
       <c r="U15" t="n">
-        <v>497.4252521977212</v>
+        <v>549.7139444472861</v>
       </c>
       <c r="V15" t="n">
-        <v>497.4252521977212</v>
+        <v>549.7139444472861</v>
       </c>
       <c r="W15" t="n">
-        <v>270.9531314779927</v>
+        <v>461.1791802378264</v>
       </c>
       <c r="X15" t="n">
-        <v>63.10163127245983</v>
+        <v>461.1791802378264</v>
       </c>
       <c r="Y15" t="n">
-        <v>63.10163127245983</v>
+        <v>461.1791802378264</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="C16" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="D16" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="E16" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F16" t="n">
         <v>17.9365919610025</v>
@@ -5439,19 +5439,19 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K16" t="n">
-        <v>116.1990877137129</v>
+        <v>18.64088125094042</v>
       </c>
       <c r="L16" t="n">
-        <v>297.4676862869273</v>
+        <v>199.9094798241549</v>
       </c>
       <c r="M16" t="n">
-        <v>498.9791308439496</v>
+        <v>401.4209243811772</v>
       </c>
       <c r="N16" t="n">
-        <v>701.1337000714838</v>
+        <v>603.5754936087113</v>
       </c>
       <c r="O16" t="n">
-        <v>871.8398689037915</v>
+        <v>774.2816624410191</v>
       </c>
       <c r="P16" t="n">
         <v>896.829598050125</v>
@@ -5460,28 +5460,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R16" t="n">
-        <v>896.829598050125</v>
+        <v>767.8874203107057</v>
       </c>
       <c r="S16" t="n">
-        <v>896.829598050125</v>
+        <v>767.8874203107057</v>
       </c>
       <c r="T16" t="n">
-        <v>671.0958837542485</v>
+        <v>767.8874203107057</v>
       </c>
       <c r="U16" t="n">
-        <v>465.2012918242611</v>
+        <v>767.8874203107057</v>
       </c>
       <c r="V16" t="n">
-        <v>465.2012918242611</v>
+        <v>541.4152995909772</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7291711045326</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="X16" t="n">
-        <v>238.7291711045326</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>366.2040617311322</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="C17" t="n">
-        <v>366.2040617311322</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="D17" t="n">
-        <v>366.2040617311322</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="E17" t="n">
-        <v>366.2040617311322</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="F17" t="n">
-        <v>366.2040617311322</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="G17" t="n">
-        <v>139.7319410114036</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H17" t="n">
-        <v>139.7319410114036</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="I17" t="n">
         <v>17.9365919610025</v>
       </c>
       <c r="J17" t="n">
-        <v>34.63453816531478</v>
+        <v>34.63453816531492</v>
       </c>
       <c r="K17" t="n">
-        <v>110.3989492755379</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L17" t="n">
-        <v>241.2931626632197</v>
+        <v>241.2931626632194</v>
       </c>
       <c r="M17" t="n">
-        <v>418.6076331159537</v>
+        <v>418.6076331159535</v>
       </c>
       <c r="N17" t="n">
-        <v>603.4050454560174</v>
+        <v>603.4050454560171</v>
       </c>
       <c r="O17" t="n">
-        <v>764.5687404436251</v>
+        <v>764.5687404436248</v>
       </c>
       <c r="P17" t="n">
-        <v>867.6172246027303</v>
+        <v>867.6172246027302</v>
       </c>
       <c r="Q17" t="n">
         <v>896.829598050125</v>
@@ -5542,25 +5542,25 @@
         <v>893.4040476878406</v>
       </c>
       <c r="S17" t="n">
-        <v>893.4040476878406</v>
+        <v>735.9463424214616</v>
       </c>
       <c r="T17" t="n">
-        <v>893.4040476878406</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="U17" t="n">
-        <v>666.9319269681121</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="V17" t="n">
-        <v>592.6761824508608</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="W17" t="n">
-        <v>366.2040617311322</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="X17" t="n">
-        <v>366.2040617311322</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.2040617311322</v>
+        <v>294.4356423333086</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="C18" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="D18" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="E18" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="F18" t="n">
-        <v>17.9365919610025</v>
+        <v>119.1343645607625</v>
       </c>
       <c r="G18" t="n">
-        <v>17.9365919610025</v>
+        <v>119.1343645607625</v>
       </c>
       <c r="H18" t="n">
         <v>17.9365919610025</v>
@@ -5597,22 +5597,22 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K18" t="n">
-        <v>80.92661968424386</v>
+        <v>80.92661968424392</v>
       </c>
       <c r="L18" t="n">
-        <v>211.9470265655318</v>
+        <v>211.9470265655319</v>
       </c>
       <c r="M18" t="n">
-        <v>384.1985297349102</v>
+        <v>384.1985297349104</v>
       </c>
       <c r="N18" t="n">
-        <v>575.4176625585851</v>
+        <v>575.4176625585853</v>
       </c>
       <c r="O18" t="n">
-        <v>774.514191069875</v>
+        <v>728.126016203649</v>
       </c>
       <c r="P18" t="n">
-        <v>877.7430416330335</v>
+        <v>831.3548667668075</v>
       </c>
       <c r="Q18" t="n">
         <v>896.829598050125</v>
@@ -5624,22 +5624,22 @@
         <v>896.829598050125</v>
       </c>
       <c r="T18" t="n">
-        <v>699.7226957750378</v>
+        <v>896.829598050125</v>
       </c>
       <c r="U18" t="n">
-        <v>678.7323336059925</v>
+        <v>670.3574773303965</v>
       </c>
       <c r="V18" t="n">
-        <v>452.2602128862639</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="W18" t="n">
-        <v>225.7880921665353</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="X18" t="n">
-        <v>17.9365919610025</v>
+        <v>433.8842595539456</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.9365919610025</v>
+        <v>433.8842595539456</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>638.0466141202846</v>
+        <v>330.9130518439893</v>
       </c>
       <c r="C19" t="n">
-        <v>638.0466141202846</v>
+        <v>330.9130518439893</v>
       </c>
       <c r="D19" t="n">
-        <v>487.9299747079489</v>
+        <v>330.9130518439893</v>
       </c>
       <c r="E19" t="n">
-        <v>487.9299747079489</v>
+        <v>330.9130518439893</v>
       </c>
       <c r="F19" t="n">
-        <v>341.0400272100385</v>
+        <v>184.0231043460789</v>
       </c>
       <c r="G19" t="n">
-        <v>172.4087206375356</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H19" t="n">
         <v>17.9365919610025</v>
@@ -5676,16 +5676,16 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K19" t="n">
-        <v>18.64088125094059</v>
+        <v>18.64088125094042</v>
       </c>
       <c r="L19" t="n">
-        <v>199.909479824155</v>
+        <v>199.9094798241549</v>
       </c>
       <c r="M19" t="n">
-        <v>401.4209243811773</v>
+        <v>401.4209243811772</v>
       </c>
       <c r="N19" t="n">
-        <v>603.5754936087114</v>
+        <v>603.5754936087113</v>
       </c>
       <c r="O19" t="n">
         <v>774.2816624410191</v>
@@ -5697,28 +5697,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R19" t="n">
-        <v>896.829598050125</v>
+        <v>765.2517557262037</v>
       </c>
       <c r="S19" t="n">
-        <v>688.9630148876391</v>
+        <v>557.3851725637178</v>
       </c>
       <c r="T19" t="n">
-        <v>688.9630148876391</v>
+        <v>557.3851725637178</v>
       </c>
       <c r="U19" t="n">
-        <v>638.0466141202846</v>
+        <v>557.3851725637178</v>
       </c>
       <c r="V19" t="n">
-        <v>638.0466141202846</v>
+        <v>557.3851725637178</v>
       </c>
       <c r="W19" t="n">
-        <v>638.0466141202846</v>
+        <v>557.3851725637178</v>
       </c>
       <c r="X19" t="n">
-        <v>638.0466141202846</v>
+        <v>330.9130518439893</v>
       </c>
       <c r="Y19" t="n">
-        <v>638.0466141202846</v>
+        <v>330.9130518439893</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>244.408712680731</v>
       </c>
       <c r="F20" t="n">
-        <v>17.9365919610025</v>
+        <v>244.408712680731</v>
       </c>
       <c r="G20" t="n">
         <v>17.9365919610025</v>
@@ -5779,10 +5779,10 @@
         <v>893.4040476878404</v>
       </c>
       <c r="S20" t="n">
-        <v>893.4040476878404</v>
+        <v>735.9463424214614</v>
       </c>
       <c r="T20" t="n">
-        <v>697.3529541201881</v>
+        <v>520.9077630530369</v>
       </c>
       <c r="U20" t="n">
         <v>470.8808334004596</v>
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>194.4897620860156</v>
+        <v>265.4902762903551</v>
       </c>
       <c r="C21" t="n">
-        <v>194.4897620860156</v>
+        <v>166.8710016222538</v>
       </c>
       <c r="D21" t="n">
-        <v>194.4897620860156</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="E21" t="n">
-        <v>194.4897620860156</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F21" t="n">
-        <v>119.1343645607625</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G21" t="n">
-        <v>119.1343645607625</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H21" t="n">
         <v>17.9365919610025</v>
@@ -5855,28 +5855,28 @@
         <v>896.8295980501248</v>
       </c>
       <c r="R21" t="n">
-        <v>873.9061242452012</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="S21" t="n">
-        <v>873.9061242452012</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="T21" t="n">
-        <v>873.9061242452012</v>
+        <v>699.7226957750376</v>
       </c>
       <c r="U21" t="n">
-        <v>647.4340035254727</v>
+        <v>473.250575055309</v>
       </c>
       <c r="V21" t="n">
-        <v>420.9618828057442</v>
+        <v>473.250575055309</v>
       </c>
       <c r="W21" t="n">
-        <v>194.4897620860156</v>
+        <v>473.250575055309</v>
       </c>
       <c r="X21" t="n">
-        <v>194.4897620860156</v>
+        <v>473.250575055309</v>
       </c>
       <c r="Y21" t="n">
-        <v>194.4897620860156</v>
+        <v>265.4902762903551</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>449.5648981868661</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="C22" t="n">
-        <v>449.5648981868661</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="D22" t="n">
-        <v>449.5648981868661</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="E22" t="n">
-        <v>301.651804604473</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F22" t="n">
-        <v>154.7618571065626</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G22" t="n">
-        <v>154.7618571065626</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H22" t="n">
-        <v>143.1838926463842</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="I22" t="n">
         <v>17.9365919610025</v>
@@ -5943,19 +5943,19 @@
         <v>896.8295980501248</v>
       </c>
       <c r="U22" t="n">
-        <v>896.8295980501248</v>
+        <v>670.3574773303963</v>
       </c>
       <c r="V22" t="n">
-        <v>896.8295980501248</v>
+        <v>612.0912393221715</v>
       </c>
       <c r="W22" t="n">
-        <v>670.3574773303963</v>
+        <v>385.619118602443</v>
       </c>
       <c r="X22" t="n">
-        <v>670.3574773303963</v>
+        <v>385.619118602443</v>
       </c>
       <c r="Y22" t="n">
-        <v>449.5648981868661</v>
+        <v>164.8265394589129</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>697.3529541201881</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="C23" t="n">
-        <v>697.3529541201881</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="D23" t="n">
-        <v>470.8808334004596</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="E23" t="n">
-        <v>244.408712680731</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F23" t="n">
         <v>17.9365919610025</v>
@@ -5989,52 +5989,52 @@
         <v>17.9365919610025</v>
       </c>
       <c r="J23" t="n">
-        <v>34.63453816531425</v>
+        <v>34.63453816531478</v>
       </c>
       <c r="K23" t="n">
-        <v>110.3989492755371</v>
+        <v>110.3989492755376</v>
       </c>
       <c r="L23" t="n">
-        <v>241.2931626632189</v>
+        <v>241.2931626632194</v>
       </c>
       <c r="M23" t="n">
-        <v>418.607633115953</v>
+        <v>418.6076331159535</v>
       </c>
       <c r="N23" t="n">
-        <v>603.4050454560169</v>
+        <v>603.4050454560171</v>
       </c>
       <c r="O23" t="n">
-        <v>764.5687404436246</v>
+        <v>764.5687404436248</v>
       </c>
       <c r="P23" t="n">
-        <v>867.6172246027299</v>
+        <v>867.6172246027302</v>
       </c>
       <c r="Q23" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R23" t="n">
-        <v>893.4040476878404</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="S23" t="n">
-        <v>893.4040476878404</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="T23" t="n">
-        <v>893.4040476878404</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="U23" t="n">
-        <v>893.4040476878404</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="V23" t="n">
-        <v>893.4040476878404</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="W23" t="n">
-        <v>893.4040476878404</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="X23" t="n">
-        <v>893.4040476878404</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="Y23" t="n">
-        <v>697.3529541201881</v>
+        <v>470.8808334004597</v>
       </c>
     </row>
     <row r="24">
@@ -6068,49 +6068,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="J24" t="n">
-        <v>17.9365919610025</v>
+        <v>64.32476682722839</v>
       </c>
       <c r="K24" t="n">
-        <v>127.3147945504696</v>
+        <v>127.3147945504698</v>
       </c>
       <c r="L24" t="n">
-        <v>258.3352014317576</v>
+        <v>258.3352014317578</v>
       </c>
       <c r="M24" t="n">
-        <v>430.586704601136</v>
+        <v>430.5867046011363</v>
       </c>
       <c r="N24" t="n">
-        <v>621.805837424811</v>
+        <v>621.8058374248112</v>
       </c>
       <c r="O24" t="n">
-        <v>774.5141910698746</v>
+        <v>774.5141910698749</v>
       </c>
       <c r="P24" t="n">
-        <v>877.7430416330332</v>
+        <v>877.7430416330334</v>
       </c>
       <c r="Q24" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R24" t="n">
-        <v>873.9061242452012</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S24" t="n">
-        <v>873.9061242452012</v>
+        <v>896.829598050125</v>
       </c>
       <c r="T24" t="n">
-        <v>873.9061242452012</v>
+        <v>699.7226957750378</v>
       </c>
       <c r="U24" t="n">
-        <v>647.4340035254727</v>
+        <v>660.0205116512178</v>
       </c>
       <c r="V24" t="n">
-        <v>420.9618828057442</v>
+        <v>660.0205116512178</v>
       </c>
       <c r="W24" t="n">
-        <v>194.4897620860156</v>
+        <v>433.5483909314893</v>
       </c>
       <c r="X24" t="n">
-        <v>17.9365919610025</v>
+        <v>225.6968907259564</v>
       </c>
       <c r="Y24" t="n">
         <v>17.9365919610025</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>17.9365919610025</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="C25" t="n">
-        <v>17.9365919610025</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="D25" t="n">
-        <v>17.9365919610025</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="E25" t="n">
-        <v>17.9365919610025</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="F25" t="n">
-        <v>17.9365919610025</v>
+        <v>316.3393530938522</v>
       </c>
       <c r="G25" t="n">
-        <v>17.9365919610025</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="H25" t="n">
         <v>17.9365919610025</v>
@@ -6150,49 +6150,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K25" t="n">
-        <v>18.6408812509402</v>
+        <v>18.64088125094042</v>
       </c>
       <c r="L25" t="n">
-        <v>199.9094798241547</v>
+        <v>199.9094798241549</v>
       </c>
       <c r="M25" t="n">
-        <v>401.420924381177</v>
+        <v>401.4209243811772</v>
       </c>
       <c r="N25" t="n">
-        <v>603.5754936087111</v>
+        <v>603.5754936087113</v>
       </c>
       <c r="O25" t="n">
-        <v>774.2816624410189</v>
+        <v>774.2816624410191</v>
       </c>
       <c r="P25" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="Q25" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R25" t="n">
-        <v>765.2517557262034</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S25" t="n">
-        <v>557.3851725637176</v>
+        <v>688.9630148876391</v>
       </c>
       <c r="T25" t="n">
-        <v>557.3851725637176</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="U25" t="n">
-        <v>330.913051843989</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="V25" t="n">
-        <v>104.4409311242605</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="W25" t="n">
-        <v>104.4409311242605</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="X25" t="n">
-        <v>104.4409311242605</v>
+        <v>463.2293005917626</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.4409311242605</v>
+        <v>463.2293005917626</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>470.8808334004596</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="C26" t="n">
-        <v>244.408712680731</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="D26" t="n">
-        <v>244.408712680731</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="E26" t="n">
-        <v>244.408712680731</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="F26" t="n">
-        <v>244.408712680731</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="G26" t="n">
         <v>17.9365919610025</v>
@@ -6232,46 +6232,46 @@
         <v>110.3989492755378</v>
       </c>
       <c r="L26" t="n">
-        <v>241.2931626632192</v>
+        <v>241.2931626632196</v>
       </c>
       <c r="M26" t="n">
-        <v>418.6076331159531</v>
+        <v>418.6076331159537</v>
       </c>
       <c r="N26" t="n">
-        <v>603.4050454560169</v>
+        <v>603.4050454560175</v>
       </c>
       <c r="O26" t="n">
-        <v>764.5687404436246</v>
+        <v>764.5687404436248</v>
       </c>
       <c r="P26" t="n">
-        <v>867.6172246027299</v>
+        <v>867.6172246027302</v>
       </c>
       <c r="Q26" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R26" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S26" t="n">
-        <v>896.8295980501248</v>
+        <v>739.371892783746</v>
       </c>
       <c r="T26" t="n">
-        <v>896.8295980501248</v>
+        <v>524.3333134153215</v>
       </c>
       <c r="U26" t="n">
-        <v>697.3529541201881</v>
+        <v>524.3333134153215</v>
       </c>
       <c r="V26" t="n">
-        <v>697.3529541201881</v>
+        <v>524.3333134153215</v>
       </c>
       <c r="W26" t="n">
-        <v>697.3529541201881</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="X26" t="n">
-        <v>697.3529541201881</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="Y26" t="n">
-        <v>470.8808334004596</v>
+        <v>470.8808334004597</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>155.4071672592559</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="C27" t="n">
-        <v>155.4071672592559</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="D27" t="n">
-        <v>155.4071672592559</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="E27" t="n">
-        <v>155.4071672592559</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F27" t="n">
-        <v>155.4071672592559</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G27" t="n">
         <v>17.9365919610025</v>
@@ -6308,49 +6308,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K27" t="n">
-        <v>80.9266196842439</v>
+        <v>80.92661968424392</v>
       </c>
       <c r="L27" t="n">
-        <v>211.9470265655319</v>
+        <v>258.3352014317578</v>
       </c>
       <c r="M27" t="n">
-        <v>430.586704601136</v>
+        <v>430.5867046011363</v>
       </c>
       <c r="N27" t="n">
-        <v>621.805837424811</v>
+        <v>621.8058374248112</v>
       </c>
       <c r="O27" t="n">
-        <v>774.5141910698746</v>
+        <v>774.5141910698749</v>
       </c>
       <c r="P27" t="n">
-        <v>877.7430416330332</v>
+        <v>877.7430416330334</v>
       </c>
       <c r="Q27" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R27" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S27" t="n">
-        <v>746.8208467223731</v>
+        <v>896.829598050125</v>
       </c>
       <c r="T27" t="n">
-        <v>608.3514086987129</v>
+        <v>886.4926323709464</v>
       </c>
       <c r="U27" t="n">
-        <v>608.3514086987129</v>
+        <v>660.0205116512178</v>
       </c>
       <c r="V27" t="n">
-        <v>381.8792879789844</v>
+        <v>660.0205116512178</v>
       </c>
       <c r="W27" t="n">
-        <v>155.4071672592559</v>
+        <v>433.5483909314893</v>
       </c>
       <c r="X27" t="n">
-        <v>155.4071672592559</v>
+        <v>225.6968907259564</v>
       </c>
       <c r="Y27" t="n">
-        <v>155.4071672592559</v>
+        <v>17.9365919610025</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>631.7924553815486</v>
+        <v>462.4908941679106</v>
       </c>
       <c r="C28" t="n">
-        <v>462.8562724536417</v>
+        <v>293.5547112400037</v>
       </c>
       <c r="D28" t="n">
-        <v>312.739633041306</v>
+        <v>293.5547112400037</v>
       </c>
       <c r="E28" t="n">
-        <v>164.8265394589129</v>
+        <v>145.6416176576106</v>
       </c>
       <c r="F28" t="n">
-        <v>17.9365919610025</v>
+        <v>145.6416176576106</v>
       </c>
       <c r="G28" t="n">
         <v>17.9365919610025</v>
@@ -6387,49 +6387,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K28" t="n">
-        <v>18.6408812509402</v>
+        <v>18.64088125094042</v>
       </c>
       <c r="L28" t="n">
-        <v>199.9094798241547</v>
+        <v>199.9094798241549</v>
       </c>
       <c r="M28" t="n">
-        <v>401.420924381177</v>
+        <v>401.4209243811772</v>
       </c>
       <c r="N28" t="n">
-        <v>603.5754936087111</v>
+        <v>603.5754936087113</v>
       </c>
       <c r="O28" t="n">
-        <v>774.2816624410189</v>
+        <v>774.2816624410191</v>
       </c>
       <c r="P28" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="Q28" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R28" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S28" t="n">
-        <v>858.2645761012772</v>
+        <v>688.9630148876391</v>
       </c>
       <c r="T28" t="n">
-        <v>858.2645761012772</v>
+        <v>688.9630148876391</v>
       </c>
       <c r="U28" t="n">
-        <v>858.2645761012772</v>
+        <v>688.9630148876391</v>
       </c>
       <c r="V28" t="n">
-        <v>858.2645761012772</v>
+        <v>688.9630148876391</v>
       </c>
       <c r="W28" t="n">
-        <v>631.7924553815486</v>
+        <v>462.4908941679106</v>
       </c>
       <c r="X28" t="n">
-        <v>631.7924553815486</v>
+        <v>462.4908941679106</v>
       </c>
       <c r="Y28" t="n">
-        <v>631.7924553815486</v>
+        <v>462.4908941679106</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>244.408712680731</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="C29" t="n">
-        <v>17.9365919610025</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="D29" t="n">
-        <v>17.9365919610025</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="E29" t="n">
-        <v>17.9365919610025</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="F29" t="n">
         <v>17.9365919610025</v>
@@ -6463,52 +6463,52 @@
         <v>17.9365919610025</v>
       </c>
       <c r="J29" t="n">
-        <v>34.63453816531489</v>
+        <v>34.63453816531491</v>
       </c>
       <c r="K29" t="n">
-        <v>110.3989492755371</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L29" t="n">
-        <v>241.2931626632189</v>
+        <v>241.2931626632196</v>
       </c>
       <c r="M29" t="n">
-        <v>418.607633115953</v>
+        <v>418.6076331159537</v>
       </c>
       <c r="N29" t="n">
-        <v>603.4050454560169</v>
+        <v>603.4050454560175</v>
       </c>
       <c r="O29" t="n">
-        <v>764.5687404436246</v>
+        <v>764.5687404436253</v>
       </c>
       <c r="P29" t="n">
-        <v>867.6172246027299</v>
+        <v>867.6172246027306</v>
       </c>
       <c r="Q29" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R29" t="n">
-        <v>896.8295980501248</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="S29" t="n">
-        <v>896.8295980501248</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="T29" t="n">
-        <v>697.3529541201881</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="U29" t="n">
-        <v>697.3529541201881</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="V29" t="n">
-        <v>470.8808334004596</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="W29" t="n">
-        <v>470.8808334004596</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="X29" t="n">
-        <v>244.408712680731</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.408712680731</v>
+        <v>893.4040476878406</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>26.27442506594761</v>
+        <v>318.9389704368297</v>
       </c>
       <c r="C30" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="D30" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="E30" t="n">
-        <v>17.9365919610025</v>
+        <v>265.6689225338775</v>
       </c>
       <c r="F30" t="n">
-        <v>17.9365919610025</v>
+        <v>119.1343645607625</v>
       </c>
       <c r="G30" t="n">
-        <v>17.9365919610025</v>
+        <v>119.1343645607625</v>
       </c>
       <c r="H30" t="n">
         <v>17.9365919610025</v>
@@ -6545,7 +6545,7 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K30" t="n">
-        <v>80.9266196842439</v>
+        <v>80.92661968424392</v>
       </c>
       <c r="L30" t="n">
         <v>211.9470265655319</v>
@@ -6557,37 +6557,37 @@
         <v>575.4176625585853</v>
       </c>
       <c r="O30" t="n">
-        <v>728.126016203649</v>
+        <v>774.5141910698749</v>
       </c>
       <c r="P30" t="n">
-        <v>877.7430416330332</v>
+        <v>877.7430416330334</v>
       </c>
       <c r="Q30" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R30" t="n">
-        <v>873.9061242452012</v>
+        <v>873.9061242452015</v>
       </c>
       <c r="S30" t="n">
-        <v>873.9061242452012</v>
+        <v>723.8973729174497</v>
       </c>
       <c r="T30" t="n">
-        <v>873.9061242452012</v>
+        <v>526.7904706423625</v>
       </c>
       <c r="U30" t="n">
-        <v>647.4340035254727</v>
+        <v>526.7904706423625</v>
       </c>
       <c r="V30" t="n">
-        <v>420.9618828057442</v>
+        <v>526.7904706423625</v>
       </c>
       <c r="W30" t="n">
-        <v>194.4897620860156</v>
+        <v>526.7904706423625</v>
       </c>
       <c r="X30" t="n">
-        <v>194.4897620860156</v>
+        <v>318.9389704368297</v>
       </c>
       <c r="Y30" t="n">
-        <v>194.4897620860156</v>
+        <v>318.9389704368297</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.9365919610025</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="C31" t="n">
-        <v>17.9365919610025</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="D31" t="n">
-        <v>17.9365919610025</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="E31" t="n">
-        <v>17.9365919610025</v>
+        <v>487.9299747079489</v>
       </c>
       <c r="F31" t="n">
-        <v>17.9365919610025</v>
+        <v>341.0400272100385</v>
       </c>
       <c r="G31" t="n">
-        <v>17.9365919610025</v>
+        <v>172.4087206375356</v>
       </c>
       <c r="H31" t="n">
         <v>17.9365919610025</v>
@@ -6624,49 +6624,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K31" t="n">
-        <v>18.6408812509402</v>
+        <v>18.64088125094042</v>
       </c>
       <c r="L31" t="n">
-        <v>199.9094798241547</v>
+        <v>199.9094798241549</v>
       </c>
       <c r="M31" t="n">
-        <v>401.420924381177</v>
+        <v>401.4209243811772</v>
       </c>
       <c r="N31" t="n">
-        <v>603.5754936087111</v>
+        <v>603.5754936087113</v>
       </c>
       <c r="O31" t="n">
-        <v>774.2816624410189</v>
+        <v>774.2816624410191</v>
       </c>
       <c r="P31" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="Q31" t="n">
-        <v>896.8295980501248</v>
+        <v>896.829598050125</v>
       </c>
       <c r="R31" t="n">
-        <v>896.8295980501248</v>
+        <v>765.2517557262037</v>
       </c>
       <c r="S31" t="n">
-        <v>896.8295980501248</v>
+        <v>765.2517557262037</v>
       </c>
       <c r="T31" t="n">
-        <v>671.0958837542482</v>
+        <v>765.2517557262037</v>
       </c>
       <c r="U31" t="n">
-        <v>671.0958837542482</v>
+        <v>765.2517557262037</v>
       </c>
       <c r="V31" t="n">
-        <v>444.6237630345197</v>
+        <v>669.5784395381886</v>
       </c>
       <c r="W31" t="n">
-        <v>218.1516423147912</v>
+        <v>669.5784395381886</v>
       </c>
       <c r="X31" t="n">
-        <v>218.1516423147912</v>
+        <v>669.5784395381886</v>
       </c>
       <c r="Y31" t="n">
-        <v>199.5850567912422</v>
+        <v>669.5784395381886</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.9365919610025</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="C32" t="n">
-        <v>17.9365919610025</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="D32" t="n">
-        <v>17.9365919610025</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="E32" t="n">
-        <v>17.9365919610025</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="F32" t="n">
-        <v>17.9365919610025</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="G32" t="n">
-        <v>17.9365919610025</v>
+        <v>67.96352161358001</v>
       </c>
       <c r="H32" t="n">
         <v>17.9365919610025</v>
@@ -6700,16 +6700,16 @@
         <v>17.9365919610025</v>
       </c>
       <c r="J32" t="n">
-        <v>34.63453816531478</v>
+        <v>34.63453816531448</v>
       </c>
       <c r="K32" t="n">
-        <v>110.3989492755376</v>
+        <v>110.3989492755373</v>
       </c>
       <c r="L32" t="n">
-        <v>241.2931626632194</v>
+        <v>241.2931626632191</v>
       </c>
       <c r="M32" t="n">
-        <v>418.6076331159535</v>
+        <v>418.6076331159533</v>
       </c>
       <c r="N32" t="n">
         <v>603.4050454560171</v>
@@ -6724,28 +6724,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R32" t="n">
-        <v>896.829598050125</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="S32" t="n">
-        <v>896.829598050125</v>
+        <v>735.9463424214616</v>
       </c>
       <c r="T32" t="n">
-        <v>681.7910186817005</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="U32" t="n">
-        <v>681.7910186817005</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="V32" t="n">
-        <v>681.7910186817005</v>
+        <v>520.9077630530371</v>
       </c>
       <c r="W32" t="n">
-        <v>681.7910186817005</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="X32" t="n">
-        <v>455.318897961972</v>
+        <v>294.4356423333086</v>
       </c>
       <c r="Y32" t="n">
-        <v>244.4087126807311</v>
+        <v>294.4356423333086</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>598.9833461310551</v>
+        <v>348.8511638700437</v>
       </c>
       <c r="C33" t="n">
-        <v>598.9833461310551</v>
+        <v>348.8511638700437</v>
       </c>
       <c r="D33" t="n">
-        <v>450.0489364698038</v>
+        <v>348.8511638700437</v>
       </c>
       <c r="E33" t="n">
-        <v>450.0489364698038</v>
+        <v>348.8511638700437</v>
       </c>
       <c r="F33" t="n">
-        <v>303.5143784966888</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="G33" t="n">
-        <v>166.0438031984353</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="H33" t="n">
         <v>64.8460305986753</v>
@@ -6782,22 +6782,22 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K33" t="n">
-        <v>80.92661968424392</v>
+        <v>127.3147945504698</v>
       </c>
       <c r="L33" t="n">
-        <v>211.9470265655319</v>
+        <v>258.3352014317578</v>
       </c>
       <c r="M33" t="n">
-        <v>384.1985297349104</v>
+        <v>430.5867046011363</v>
       </c>
       <c r="N33" t="n">
-        <v>575.4176625585853</v>
+        <v>621.8058374248112</v>
       </c>
       <c r="O33" t="n">
-        <v>728.126016203649</v>
+        <v>774.5141910698749</v>
       </c>
       <c r="P33" t="n">
-        <v>831.3548667668075</v>
+        <v>877.7430416330334</v>
       </c>
       <c r="Q33" t="n">
         <v>896.829598050125</v>
@@ -6806,25 +6806,25 @@
         <v>873.9061242452015</v>
       </c>
       <c r="S33" t="n">
-        <v>723.8973729174497</v>
+        <v>801.7954053095008</v>
       </c>
       <c r="T33" t="n">
-        <v>723.8973729174497</v>
+        <v>801.7954053095008</v>
       </c>
       <c r="U33" t="n">
-        <v>723.8973729174497</v>
+        <v>801.7954053095008</v>
       </c>
       <c r="V33" t="n">
-        <v>723.8973729174497</v>
+        <v>575.3232845897722</v>
       </c>
       <c r="W33" t="n">
-        <v>723.8973729174497</v>
+        <v>348.8511638700437</v>
       </c>
       <c r="X33" t="n">
-        <v>598.9833461310551</v>
+        <v>348.8511638700437</v>
       </c>
       <c r="Y33" t="n">
-        <v>598.9833461310551</v>
+        <v>348.8511638700437</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>331.6514582678412</v>
+        <v>631.7924553815486</v>
       </c>
       <c r="C34" t="n">
-        <v>331.6514582678412</v>
+        <v>462.8562724536417</v>
       </c>
       <c r="D34" t="n">
-        <v>331.6514582678412</v>
+        <v>312.739633041306</v>
       </c>
       <c r="E34" t="n">
-        <v>331.6514582678412</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F34" t="n">
-        <v>184.7615107699309</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G34" t="n">
         <v>17.9365919610025</v>
@@ -6882,28 +6882,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R34" t="n">
-        <v>765.2517557262037</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S34" t="n">
-        <v>557.3851725637178</v>
+        <v>896.829598050125</v>
       </c>
       <c r="T34" t="n">
-        <v>331.6514582678412</v>
+        <v>896.829598050125</v>
       </c>
       <c r="U34" t="n">
-        <v>331.6514582678412</v>
+        <v>858.2645761012772</v>
       </c>
       <c r="V34" t="n">
-        <v>331.6514582678412</v>
+        <v>631.7924553815486</v>
       </c>
       <c r="W34" t="n">
-        <v>331.6514582678412</v>
+        <v>631.7924553815486</v>
       </c>
       <c r="X34" t="n">
-        <v>331.6514582678412</v>
+        <v>631.7924553815486</v>
       </c>
       <c r="Y34" t="n">
-        <v>331.6514582678412</v>
+        <v>631.7924553815486</v>
       </c>
     </row>
     <row r="35">
@@ -6916,10 +6916,10 @@
         <v>470.8808334004597</v>
       </c>
       <c r="C35" t="n">
-        <v>470.8808334004597</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="D35" t="n">
-        <v>470.8808334004597</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="E35" t="n">
         <v>244.4087126807311</v>
@@ -6964,19 +6964,19 @@
         <v>893.4040476878406</v>
       </c>
       <c r="S35" t="n">
-        <v>735.9463424214616</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="T35" t="n">
-        <v>520.9077630530371</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="U35" t="n">
-        <v>520.9077630530371</v>
+        <v>893.4040476878406</v>
       </c>
       <c r="V35" t="n">
-        <v>470.8808334004597</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="W35" t="n">
-        <v>470.8808334004597</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="X35" t="n">
         <v>470.8808334004597</v>
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>472.6430146008243</v>
+        <v>403.139497832131</v>
       </c>
       <c r="C36" t="n">
-        <v>472.6430146008243</v>
+        <v>403.139497832131</v>
       </c>
       <c r="D36" t="n">
-        <v>323.708604939573</v>
+        <v>403.139497832131</v>
       </c>
       <c r="E36" t="n">
-        <v>164.4711499341175</v>
+        <v>403.139497832131</v>
       </c>
       <c r="F36" t="n">
-        <v>17.9365919610025</v>
+        <v>256.604939859016</v>
       </c>
       <c r="G36" t="n">
-        <v>17.9365919610025</v>
+        <v>119.1343645607625</v>
       </c>
       <c r="H36" t="n">
         <v>17.9365919610025</v>
@@ -7016,13 +7016,13 @@
         <v>17.9365919610025</v>
       </c>
       <c r="J36" t="n">
-        <v>17.9365919610025</v>
+        <v>64.32476682722839</v>
       </c>
       <c r="K36" t="n">
-        <v>80.92661968424392</v>
+        <v>127.3147945504698</v>
       </c>
       <c r="L36" t="n">
-        <v>211.9470265655319</v>
+        <v>258.3352014317578</v>
       </c>
       <c r="M36" t="n">
         <v>430.5867046011363</v>
@@ -7046,22 +7046,22 @@
         <v>873.9061242452015</v>
       </c>
       <c r="T36" t="n">
-        <v>867.3304723406209</v>
+        <v>676.7992219701142</v>
       </c>
       <c r="U36" t="n">
-        <v>867.3304723406209</v>
+        <v>450.3271012503857</v>
       </c>
       <c r="V36" t="n">
-        <v>867.3304723406209</v>
+        <v>450.3271012503857</v>
       </c>
       <c r="W36" t="n">
-        <v>640.8583516208923</v>
+        <v>450.3271012503857</v>
       </c>
       <c r="X36" t="n">
-        <v>640.8583516208923</v>
+        <v>450.3271012503857</v>
       </c>
       <c r="Y36" t="n">
-        <v>640.8583516208923</v>
+        <v>450.3271012503857</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>333.7627223868197</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="C37" t="n">
-        <v>164.8265394589129</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="D37" t="n">
-        <v>164.8265394589129</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="E37" t="n">
-        <v>164.8265394589129</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="F37" t="n">
-        <v>17.9365919610025</v>
+        <v>186.5678985335054</v>
       </c>
       <c r="G37" t="n">
         <v>17.9365919610025</v>
@@ -7119,28 +7119,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R37" t="n">
-        <v>896.829598050125</v>
+        <v>767.7965499136302</v>
       </c>
       <c r="S37" t="n">
-        <v>896.829598050125</v>
+        <v>559.9299667511443</v>
       </c>
       <c r="T37" t="n">
-        <v>896.829598050125</v>
+        <v>559.9299667511443</v>
       </c>
       <c r="U37" t="n">
-        <v>670.3574773303965</v>
+        <v>559.9299667511443</v>
       </c>
       <c r="V37" t="n">
-        <v>670.3574773303965</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="W37" t="n">
-        <v>670.3574773303965</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="X37" t="n">
-        <v>554.5553015303499</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="Y37" t="n">
-        <v>333.7627223868197</v>
+        <v>333.4578460314158</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="C38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="D38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="E38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="F38" t="n">
-        <v>297.861192695593</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="G38" t="n">
-        <v>71.38907197586443</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H38" t="n">
-        <v>71.38907197586443</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="I38" t="n">
         <v>17.9365919610025</v>
@@ -7183,10 +7183,10 @@
         <v>241.2931626632192</v>
       </c>
       <c r="M38" t="n">
-        <v>418.6076331159533</v>
+        <v>418.6076331159531</v>
       </c>
       <c r="N38" t="n">
-        <v>603.4050454560171</v>
+        <v>603.405045456017</v>
       </c>
       <c r="O38" t="n">
         <v>764.5687404436248</v>
@@ -7201,25 +7201,25 @@
         <v>896.829598050125</v>
       </c>
       <c r="S38" t="n">
-        <v>739.371892783746</v>
+        <v>896.829598050125</v>
       </c>
       <c r="T38" t="n">
-        <v>524.3333134153215</v>
+        <v>697.3529541201882</v>
       </c>
       <c r="U38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="V38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="W38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="X38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.861192695593</v>
+        <v>470.8808334004597</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>17.9365919610025</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="C39" t="n">
-        <v>17.9365919610025</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="D39" t="n">
-        <v>17.9365919610025</v>
+        <v>294.9509469494167</v>
       </c>
       <c r="E39" t="n">
-        <v>17.9365919610025</v>
+        <v>294.9509469494167</v>
       </c>
       <c r="F39" t="n">
-        <v>17.9365919610025</v>
+        <v>148.4163889763016</v>
       </c>
       <c r="G39" t="n">
         <v>17.9365919610025</v>
@@ -7259,16 +7259,16 @@
         <v>80.92661968424392</v>
       </c>
       <c r="L39" t="n">
-        <v>258.3352014317578</v>
+        <v>211.9470265655319</v>
       </c>
       <c r="M39" t="n">
-        <v>430.5867046011363</v>
+        <v>384.1985297349104</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8058374248112</v>
+        <v>575.4176625585853</v>
       </c>
       <c r="O39" t="n">
-        <v>774.5141910698749</v>
+        <v>728.126016203649</v>
       </c>
       <c r="P39" t="n">
         <v>877.7430416330334</v>
@@ -7277,28 +7277,28 @@
         <v>896.829598050125</v>
       </c>
       <c r="R39" t="n">
-        <v>873.9061242452015</v>
+        <v>896.829598050125</v>
       </c>
       <c r="S39" t="n">
-        <v>873.9061242452015</v>
+        <v>896.829598050125</v>
       </c>
       <c r="T39" t="n">
-        <v>873.9061242452015</v>
+        <v>896.829598050125</v>
       </c>
       <c r="U39" t="n">
-        <v>660.0205116512178</v>
+        <v>670.3574773303965</v>
       </c>
       <c r="V39" t="n">
-        <v>433.5483909314893</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="W39" t="n">
-        <v>433.5483909314893</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="X39" t="n">
-        <v>225.6968907259564</v>
+        <v>443.8853566106679</v>
       </c>
       <c r="Y39" t="n">
-        <v>17.9365919610025</v>
+        <v>443.8853566106679</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>613.1772753933307</v>
+        <v>483.5744854437515</v>
       </c>
       <c r="C40" t="n">
-        <v>613.1772753933307</v>
+        <v>483.5744854437515</v>
       </c>
       <c r="D40" t="n">
-        <v>613.1772753933307</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="E40" t="n">
-        <v>613.1772753933307</v>
+        <v>333.4578460314158</v>
       </c>
       <c r="F40" t="n">
-        <v>466.2873278954203</v>
+        <v>186.5678985335054</v>
       </c>
       <c r="G40" t="n">
-        <v>297.6560213229174</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H40" t="n">
-        <v>143.1838926463842</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="I40" t="n">
         <v>17.9365919610025</v>
@@ -7335,22 +7335,22 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K40" t="n">
-        <v>18.64088125094042</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="L40" t="n">
-        <v>199.9094798241549</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M40" t="n">
-        <v>401.4209243811772</v>
+        <v>400.7166350912393</v>
       </c>
       <c r="N40" t="n">
-        <v>603.5754936087113</v>
+        <v>602.8712043187734</v>
       </c>
       <c r="O40" t="n">
-        <v>774.2816624410191</v>
+        <v>773.5773731510811</v>
       </c>
       <c r="P40" t="n">
-        <v>896.829598050125</v>
+        <v>896.1253087601871</v>
       </c>
       <c r="Q40" t="n">
         <v>896.829598050125</v>
@@ -7362,22 +7362,22 @@
         <v>896.829598050125</v>
       </c>
       <c r="T40" t="n">
-        <v>839.6493961130592</v>
+        <v>671.0958837542485</v>
       </c>
       <c r="U40" t="n">
-        <v>839.6493961130592</v>
+        <v>671.0958837542485</v>
       </c>
       <c r="V40" t="n">
-        <v>613.1772753933307</v>
+        <v>671.0958837542485</v>
       </c>
       <c r="W40" t="n">
-        <v>613.1772753933307</v>
+        <v>483.5744854437515</v>
       </c>
       <c r="X40" t="n">
-        <v>613.1772753933307</v>
+        <v>483.5744854437515</v>
       </c>
       <c r="Y40" t="n">
-        <v>613.1772753933307</v>
+        <v>483.5744854437515</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.4356423333086</v>
+        <v>225.4212268799588</v>
       </c>
       <c r="C41" t="n">
-        <v>294.4356423333086</v>
+        <v>225.4212268799588</v>
       </c>
       <c r="D41" t="n">
-        <v>294.4356423333086</v>
+        <v>225.4212268799588</v>
       </c>
       <c r="E41" t="n">
-        <v>294.4356423333086</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F41" t="n">
-        <v>67.96352161358001</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G41" t="n">
-        <v>67.96352161358001</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H41" t="n">
-        <v>67.96352161358001</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="I41" t="n">
         <v>17.9365919610025</v>
       </c>
       <c r="J41" t="n">
-        <v>34.63453816531501</v>
+        <v>34.63453816531491</v>
       </c>
       <c r="K41" t="n">
-        <v>110.3989492755379</v>
+        <v>110.3989492755378</v>
       </c>
       <c r="L41" t="n">
-        <v>241.2931626632197</v>
+        <v>241.2931626632195</v>
       </c>
       <c r="M41" t="n">
-        <v>418.6076331159538</v>
+        <v>418.6076331159536</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4050454560175</v>
+        <v>603.4050454560174</v>
       </c>
       <c r="O41" t="n">
-        <v>764.5687404436253</v>
+        <v>764.5687404436251</v>
       </c>
       <c r="P41" t="n">
-        <v>867.6172246027302</v>
+        <v>867.6172246027299</v>
       </c>
       <c r="Q41" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="R41" t="n">
-        <v>893.4040476878406</v>
+        <v>893.4040476878404</v>
       </c>
       <c r="S41" t="n">
-        <v>735.9463424214616</v>
+        <v>893.4040476878404</v>
       </c>
       <c r="T41" t="n">
-        <v>520.9077630530371</v>
+        <v>678.3654683194159</v>
       </c>
       <c r="U41" t="n">
-        <v>294.4356423333086</v>
+        <v>678.3654683194159</v>
       </c>
       <c r="V41" t="n">
-        <v>294.4356423333086</v>
+        <v>678.3654683194159</v>
       </c>
       <c r="W41" t="n">
-        <v>294.4356423333086</v>
+        <v>678.3654683194159</v>
       </c>
       <c r="X41" t="n">
-        <v>294.4356423333086</v>
+        <v>678.3654683194159</v>
       </c>
       <c r="Y41" t="n">
-        <v>294.4356423333086</v>
+        <v>451.8933475996873</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="C42" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="D42" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="E42" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="F42" t="n">
-        <v>17.9365919610025</v>
+        <v>155.4071672592559</v>
       </c>
       <c r="G42" t="n">
         <v>17.9365919610025</v>
@@ -7493,49 +7493,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K42" t="n">
-        <v>80.92661968424392</v>
+        <v>80.9266196842439</v>
       </c>
       <c r="L42" t="n">
         <v>211.9470265655319</v>
       </c>
       <c r="M42" t="n">
-        <v>399.8405119074052</v>
+        <v>384.1985297349104</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8058374248112</v>
+        <v>575.4176625585853</v>
       </c>
       <c r="O42" t="n">
-        <v>774.5141910698749</v>
+        <v>728.126016203649</v>
       </c>
       <c r="P42" t="n">
-        <v>877.7430416330334</v>
+        <v>877.7430416330332</v>
       </c>
       <c r="Q42" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="R42" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="S42" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="T42" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="U42" t="n">
-        <v>670.3574773303965</v>
+        <v>670.3574773303963</v>
       </c>
       <c r="V42" t="n">
-        <v>443.8853566106679</v>
+        <v>528.4138459520995</v>
       </c>
       <c r="W42" t="n">
-        <v>225.7880921665353</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="X42" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.9365919610025</v>
+        <v>301.9417252323709</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="C43" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="D43" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="E43" t="n">
-        <v>17.9365919610025</v>
+        <v>164.8265394589129</v>
       </c>
       <c r="F43" t="n">
         <v>17.9365919610025</v>
@@ -7572,49 +7572,49 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K43" t="n">
-        <v>18.64088125094042</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="L43" t="n">
-        <v>199.9094798241549</v>
+        <v>199.205190534217</v>
       </c>
       <c r="M43" t="n">
-        <v>401.4209243811772</v>
+        <v>400.7166350912393</v>
       </c>
       <c r="N43" t="n">
-        <v>603.5754936087113</v>
+        <v>602.8712043187734</v>
       </c>
       <c r="O43" t="n">
-        <v>774.2816624410191</v>
+        <v>773.5773731510811</v>
       </c>
       <c r="P43" t="n">
-        <v>896.829598050125</v>
+        <v>895.4188397508093</v>
       </c>
       <c r="Q43" t="n">
-        <v>896.829598050125</v>
+        <v>896.8295980501248</v>
       </c>
       <c r="R43" t="n">
-        <v>896.829598050125</v>
+        <v>765.2517557262034</v>
       </c>
       <c r="S43" t="n">
-        <v>697.3529541201882</v>
+        <v>765.2517557262034</v>
       </c>
       <c r="T43" t="n">
-        <v>697.3529541201882</v>
+        <v>539.5180414303269</v>
       </c>
       <c r="U43" t="n">
-        <v>470.8808334004597</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="V43" t="n">
-        <v>244.4087126807311</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="W43" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="X43" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.9365919610025</v>
+        <v>314.9431788712486</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>592.6761824508608</v>
+        <v>440.4598062483835</v>
       </c>
       <c r="C44" t="n">
-        <v>592.6761824508608</v>
+        <v>440.4598062483835</v>
       </c>
       <c r="D44" t="n">
-        <v>366.2040617311322</v>
+        <v>213.9876855286549</v>
       </c>
       <c r="E44" t="n">
-        <v>366.2040617311322</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F44" t="n">
-        <v>366.2040617311322</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G44" t="n">
-        <v>139.7319410114036</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H44" t="n">
-        <v>139.7319410114036</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="I44" t="n">
         <v>17.9365919610025</v>
@@ -7687,7 +7687,7 @@
         <v>893.4040476878407</v>
       </c>
       <c r="W44" t="n">
-        <v>666.9319269681121</v>
+        <v>893.4040476878407</v>
       </c>
       <c r="X44" t="n">
         <v>666.9319269681121</v>
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>473.2505750553093</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="C45" t="n">
-        <v>298.7975457741823</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="D45" t="n">
-        <v>149.863136112931</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="E45" t="n">
-        <v>119.1343645607625</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="F45" t="n">
-        <v>119.1343645607625</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="G45" t="n">
-        <v>119.1343645607625</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="H45" t="n">
-        <v>17.9365919610025</v>
+        <v>64.8460305986753</v>
       </c>
       <c r="I45" t="n">
         <v>17.9365919610025</v>
@@ -7745,7 +7745,7 @@
         <v>728.126016203649</v>
       </c>
       <c r="P45" t="n">
-        <v>831.3548667668075</v>
+        <v>877.7430416330335</v>
       </c>
       <c r="Q45" t="n">
         <v>896.8295980501251</v>
@@ -7763,16 +7763,16 @@
         <v>473.2505750553093</v>
       </c>
       <c r="V45" t="n">
-        <v>473.2505750553093</v>
+        <v>428.7887266166573</v>
       </c>
       <c r="W45" t="n">
-        <v>473.2505750553093</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="X45" t="n">
-        <v>473.2505750553093</v>
+        <v>202.3166058969287</v>
       </c>
       <c r="Y45" t="n">
-        <v>473.2505750553093</v>
+        <v>202.3166058969287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>635.843068290342</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="C46" t="n">
-        <v>635.843068290342</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="D46" t="n">
-        <v>635.843068290342</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="E46" t="n">
-        <v>487.9299747079489</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="F46" t="n">
-        <v>341.0400272100385</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="G46" t="n">
-        <v>172.4087206375356</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="H46" t="n">
         <v>17.9365919610025</v>
@@ -7809,22 +7809,22 @@
         <v>17.9365919610025</v>
       </c>
       <c r="K46" t="n">
-        <v>17.9365919610025</v>
+        <v>18.64088125094054</v>
       </c>
       <c r="L46" t="n">
-        <v>199.205190534217</v>
+        <v>199.909479824155</v>
       </c>
       <c r="M46" t="n">
-        <v>400.7166350912393</v>
+        <v>401.4209243811773</v>
       </c>
       <c r="N46" t="n">
-        <v>602.164735309396</v>
+        <v>603.5754936087114</v>
       </c>
       <c r="O46" t="n">
-        <v>772.8709041417037</v>
+        <v>774.2816624410192</v>
       </c>
       <c r="P46" t="n">
-        <v>895.4188397508096</v>
+        <v>896.8295980501251</v>
       </c>
       <c r="Q46" t="n">
         <v>896.8295980501251</v>
@@ -7833,25 +7833,25 @@
         <v>896.8295980501251</v>
       </c>
       <c r="S46" t="n">
-        <v>688.9630148876392</v>
+        <v>896.8295980501251</v>
       </c>
       <c r="T46" t="n">
-        <v>635.843068290342</v>
+        <v>697.3529541201883</v>
       </c>
       <c r="U46" t="n">
-        <v>635.843068290342</v>
+        <v>470.8808334004597</v>
       </c>
       <c r="V46" t="n">
-        <v>635.843068290342</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="W46" t="n">
-        <v>635.843068290342</v>
+        <v>244.4087126807311</v>
       </c>
       <c r="X46" t="n">
-        <v>635.843068290342</v>
+        <v>17.9365919610025</v>
       </c>
       <c r="Y46" t="n">
-        <v>635.843068290342</v>
+        <v>17.9365919610025</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>8.962287464734999</v>
+        <v>55.81902975385211</v>
       </c>
       <c r="K12" t="n">
-        <v>46.85674228911705</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8856,7 +8856,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>79.96601801775661</v>
       </c>
       <c r="N13" t="n">
         <v>171.8177168444618</v>
@@ -8865,10 +8865,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
-        <v>36.4629204223518</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.91794999460446</v>
+        <v>63.91794999460444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>46.85674228911705</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>46.85674228911708</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>8.20012345296321</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9102,7 +9102,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>36.4629204223518</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
         <v>63.91794999460446</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>8.962287464735027</v>
+        <v>8.962287464734999</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,13 +9257,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>46.85674228911745</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>46.85674228911708</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9324,7 +9324,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>8.20012345296341</v>
+        <v>8.20012345296321</v>
       </c>
       <c r="L19" t="n">
         <v>162.4747015415544</v>
@@ -9342,7 +9342,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.91794999460447</v>
+        <v>63.91794999460446</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>8.962287464734999</v>
+        <v>55.81902975385205</v>
       </c>
       <c r="K24" t="n">
-        <v>46.85674228911684</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>8.200123452962988</v>
+        <v>8.20012345296321</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -9959,10 +9959,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>46.85674228911705</v>
       </c>
       <c r="M27" t="n">
-        <v>46.85674228911682</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -10035,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>8.200123452962988</v>
+        <v>8.20012345296321</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>46.85674228911705</v>
       </c>
       <c r="P30" t="n">
-        <v>46.85674228911682</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>8.200123452962988</v>
+        <v>8.20012345296321</v>
       </c>
       <c r="L31" t="n">
         <v>162.4747015415544</v>
@@ -10430,7 +10430,7 @@
         <v>8.962287464734999</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>46.85674228911705</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.85674228911708</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>8.962287464734999</v>
+        <v>55.81902975385205</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10673,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>46.85674228911705</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
         <v>46.85674228911705</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>8.20012345296321</v>
+        <v>7.488720129793592</v>
       </c>
       <c r="L40" t="n">
         <v>162.4747015415544</v>
@@ -11001,7 +11001,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.91794999460446</v>
+        <v>64.6293533177741</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11147,16 +11147,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>15.79998199241905</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>31.05676029669803</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>46.85674228911682</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11220,7 +11220,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>8.20012345296321</v>
+        <v>7.488720129793592</v>
       </c>
       <c r="L43" t="n">
         <v>162.4747015415544</v>
@@ -11235,10 +11235,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>134.2929582540636</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.91794999460446</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>46.85674228911716</v>
       </c>
       <c r="Q45" t="n">
-        <v>46.85674228911719</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>7.488720129793592</v>
+        <v>8.200123452963325</v>
       </c>
       <c r="L46" t="n">
         <v>162.4747015415544</v>
@@ -11466,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>171.1041117844846</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -11475,7 +11475,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>63.91794999460446</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>141.0654922584763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>130.4756421081517</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.970891486719</v>
+        <v>363.444231130667</v>
       </c>
       <c r="H11" t="n">
-        <v>315.5937839772516</v>
+        <v>315.5937839772515</v>
       </c>
       <c r="I11" t="n">
         <v>120.5773955598971</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.391294858661581</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1591052255632</v>
+        <v>26.95170571303188</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>160.9300172500406</v>
+        <v>145.5237011659377</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23357,7 +23357,7 @@
         <v>100.1857948737624</v>
       </c>
       <c r="I12" t="n">
-        <v>46.44034425129606</v>
+        <v>46.44034425129605</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.69423906687435</v>
+        <v>22.69423906687433</v>
       </c>
       <c r="S12" t="n">
-        <v>94.66371905195766</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8593000008472</v>
+        <v>1.651900488315874</v>
       </c>
       <c r="V12" t="n">
-        <v>8.593187636894015</v>
+        <v>8.59318763689393</v>
       </c>
       <c r="W12" t="n">
-        <v>27.48758364838835</v>
+        <v>35.77869136122823</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>115.4678838949461</v>
+        <v>97.56755817414401</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23439,7 +23439,7 @@
         <v>123.9948276785279</v>
       </c>
       <c r="J13" t="n">
-        <v>19.40798040283482</v>
+        <v>19.40798040283481</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>205.787917330861</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U13" t="n">
-        <v>62.05457607023158</v>
+        <v>62.05457607023149</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>62.31559882405975</v>
+        <v>62.31559882405966</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>1.502255876505814</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>173.9327582350521</v>
       </c>
       <c r="C14" t="n">
-        <v>141.0654922584763</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>157.7229705597305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>368.6685913234507</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>188.7634919741878</v>
+        <v>412.970891486719</v>
       </c>
       <c r="H14" t="n">
         <v>315.5937839772516</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3.391294858661581</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T14" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.1591052255632</v>
@@ -23557,10 +23557,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>125.0335692048818</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>145.5237011659378</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>121.8197947315246</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,13 +23582,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>100.1857948737624</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>22.69423906687435</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65190048831596</v>
+        <v>225.8593000008472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>27.48758364838835</v>
+        <v>164.0455665935546</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9449935067779</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>130.2620639006821</v>
+        <v>2.609307938656983</v>
       </c>
       <c r="S16" t="n">
         <v>205.787917330861</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U16" t="n">
-        <v>82.42632957207539</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>27.93024381129675</v>
       </c>
       <c r="W16" t="n">
         <v>62.31559882405975</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>357.3493853856597</v>
       </c>
       <c r="G17" t="n">
         <v>188.7634919741878</v>
@@ -23752,7 +23752,7 @@
         <v>315.5937839772516</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>120.5773955598971</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>26.95170571303197</v>
+        <v>251.1591052255632</v>
       </c>
       <c r="V17" t="n">
-        <v>254.2390713980561</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>125.0335692048818</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>162.0305391435223</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23822,16 +23822,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.0958695452709</v>
       </c>
       <c r="H18" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>46.44034425129607</v>
+        <v>46.44034425129606</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.69423906687436</v>
+        <v>22.69423906687435</v>
       </c>
       <c r="S18" t="n">
         <v>148.5086638144743</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>195.1358332523363</v>
       </c>
       <c r="U18" t="n">
-        <v>205.0788414534924</v>
+        <v>1.65190048831596</v>
       </c>
       <c r="V18" t="n">
         <v>8.593187636894015</v>
       </c>
       <c r="W18" t="n">
-        <v>27.48758364838835</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.8718991173223</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,16 +23904,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.519346245552271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I19" t="n">
         <v>123.9948276785279</v>
       </c>
       <c r="J19" t="n">
-        <v>19.40798040283484</v>
+        <v>19.40798040283482</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>223.4763771529178</v>
       </c>
       <c r="U19" t="n">
-        <v>235.8547388230819</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>1.502255876505899</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>182.6686462291802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.970891486719</v>
+        <v>188.7634919741878</v>
       </c>
       <c r="H20" t="n">
         <v>315.5937839772516</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>18.79761094276444</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>26.95170571303203</v>
+        <v>201.6324448695117</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24050,22 +24050,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>75.07541706689543</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>70.4673688433833</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.0958695452709</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I21" t="n">
         <v>46.44034425129606</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.69423906687435</v>
       </c>
       <c r="S21" t="n">
         <v>148.5086638144743</v>
       </c>
       <c r="T21" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>1.651900488316016</v>
       </c>
       <c r="V21" t="n">
-        <v>8.593187636894072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>27.48758364838841</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>166.9449935067779</v>
       </c>
       <c r="H22" t="n">
-        <v>141.4652225741912</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.9948276785279</v>
       </c>
       <c r="J22" t="n">
         <v>19.40798040283482</v>
@@ -24183,10 +24183,10 @@
         <v>223.4763771529178</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2619755827628</v>
+        <v>62.05457607023163</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.4540676956855</v>
       </c>
       <c r="W22" t="n">
         <v>62.3155988240598</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>158.5264421509493</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>130.4756421081518</v>
+        <v>130.4756421081517</v>
       </c>
       <c r="E23" t="n">
-        <v>157.7229705597306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>182.6686462291802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>412.970891486719</v>
@@ -24259,7 +24259,7 @@
         <v>155.8831282137152</v>
       </c>
       <c r="T23" t="n">
-        <v>212.8881935747402</v>
+        <v>18.79761094276432</v>
       </c>
       <c r="U23" t="n">
         <v>251.1591052255632</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>192.1473560240778</v>
+        <v>162.0305391435223</v>
       </c>
     </row>
     <row r="24">
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>22.69423906687435</v>
       </c>
       <c r="S24" t="n">
         <v>148.5086638144743</v>
       </c>
       <c r="T24" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>1.651900488316016</v>
+        <v>186.5541377182655</v>
       </c>
       <c r="V24" t="n">
-        <v>8.593187636894072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>27.48758364838841</v>
+        <v>27.48758364838835</v>
       </c>
       <c r="X24" t="n">
-        <v>30.98534677971449</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.19268441031186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.9449935067779</v>
+        <v>24.45366737502448</v>
       </c>
       <c r="H25" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>123.9948276785279</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>62.05457607023163</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V25" t="n">
-        <v>27.9302438112968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>158.5264421509493</v>
       </c>
       <c r="C26" t="n">
-        <v>141.0654922584764</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24493,25 +24493,25 @@
         <v>3.391294858661581</v>
       </c>
       <c r="S26" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8881935747402</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>53.67722773492591</v>
+        <v>251.1591052255632</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>296.3230135026998</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.0305391435224</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0958695452709</v>
       </c>
       <c r="H27" t="n">
         <v>100.1857948737624</v>
@@ -24572,25 +24572,25 @@
         <v>22.69423906687435</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>148.5086638144743</v>
       </c>
       <c r="T27" t="n">
-        <v>58.05108960891283</v>
+        <v>184.9022372299495</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8593000008472</v>
+        <v>1.65190048831596</v>
       </c>
       <c r="V27" t="n">
-        <v>8.593187636894072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>27.48758364838841</v>
+        <v>27.48758364838835</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9449935067779</v>
+        <v>40.51701806713588</v>
       </c>
       <c r="H28" t="n">
         <v>152.9274073897678</v>
@@ -24651,7 +24651,7 @@
         <v>130.2620639006821</v>
       </c>
       <c r="S28" t="n">
-        <v>167.6085456015018</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>223.4763771529178</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>62.3155988240598</v>
+        <v>62.31559882405975</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>188.6432590315047</v>
       </c>
       <c r="C29" t="n">
-        <v>141.0654922584764</v>
+        <v>141.0654922584763</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>157.7229705597305</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>182.6686462291802</v>
       </c>
       <c r="G29" t="n">
         <v>412.970891486719</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>3.391294858661581</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>155.8831282137152</v>
       </c>
       <c r="T29" t="n">
-        <v>15.40631608410288</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U29" t="n">
         <v>251.1591052255632</v>
       </c>
       <c r="V29" t="n">
-        <v>103.5448589576037</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>145.5237011659378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>164.4540442144201</v>
+        <v>119.9711515643932</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>136.0958695452709</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>46.44034425129606</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>148.5086638144743</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>195.1358332523363</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1.651900488316016</v>
+        <v>225.8593000008472</v>
       </c>
       <c r="V30" t="n">
-        <v>8.593187636894072</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>27.48758364838841</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9274073897678</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>123.9948276785279</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>205.787917330861</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U31" t="n">
         <v>286.2619755827628</v>
       </c>
       <c r="V31" t="n">
-        <v>27.9302438112968</v>
+        <v>157.4210602976931</v>
       </c>
       <c r="W31" t="n">
-        <v>62.3155988240598</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.2037336837813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>158.5264421509493</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.970891486719</v>
+        <v>188.7634919741878</v>
       </c>
       <c r="H32" t="n">
-        <v>315.5937839772516</v>
+        <v>266.0671236211999</v>
       </c>
       <c r="I32" t="n">
         <v>120.5773955598971</v>
@@ -24964,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.391294858661581</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>155.8831282137152</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>125.0335692048818</v>
       </c>
       <c r="X32" t="n">
-        <v>145.5237011659378</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>177.4368552276251</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25001,7 +25001,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25013,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>77.1190520681306</v>
       </c>
       <c r="T33" t="n">
         <v>195.1358332523363</v>
@@ -25055,13 +25055,13 @@
         <v>225.8593000008472</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>8.593187636894015</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>27.48758364838835</v>
       </c>
       <c r="X33" t="n">
-        <v>82.1080986849468</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.788323885938809</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H34" t="n">
         <v>152.9274073897678</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>130.2620639006821</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>223.4763771529178</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2619755827628</v>
+        <v>248.0826038534034</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>27.93024381129675</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>141.0654922584763</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>157.7229705597305</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>182.6686462291802</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.8881935747402</v>
       </c>
       <c r="U35" t="n">
         <v>251.1591052255632</v>
       </c>
       <c r="V35" t="n">
-        <v>278.2255981140833</v>
+        <v>133.661675838159</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>145.5237011659378</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>119.8174562657952</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1857948737624</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>46.44034425129606</v>
@@ -25286,16 +25286,16 @@
         <v>148.5086638144743</v>
       </c>
       <c r="T36" t="n">
-        <v>188.6259378668016</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8593000008472</v>
+        <v>1.65190048831596</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>27.48758364838835</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9449935067779</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>152.9274073897678</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.2620639006821</v>
+        <v>2.519346245552256</v>
       </c>
       <c r="S37" t="n">
-        <v>205.787917330861</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>223.4763771529178</v>
       </c>
       <c r="U37" t="n">
-        <v>62.05457607023158</v>
+        <v>286.2619755827628</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>27.93024381129675</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>111.065501346991</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>182.6686462291802</v>
       </c>
       <c r="G38" t="n">
         <v>188.7634919741878</v>
@@ -25411,7 +25411,7 @@
         <v>315.5937839772516</v>
       </c>
       <c r="I38" t="n">
-        <v>67.65944034518381</v>
+        <v>120.5773955598971</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>3.391294858661581</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>15.40631608410277</v>
       </c>
       <c r="U38" t="n">
         <v>26.95170571303197</v>
@@ -25475,16 +25475,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0958695452709</v>
+        <v>6.920870500124721</v>
       </c>
       <c r="H39" t="n">
         <v>100.1857948737624</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>22.69423906687435</v>
       </c>
       <c r="S39" t="n">
         <v>148.5086638144743</v>
@@ -25526,7 +25526,7 @@
         <v>195.1358332523363</v>
       </c>
       <c r="U39" t="n">
-        <v>14.11254353280341</v>
+        <v>1.65190048831596</v>
       </c>
       <c r="V39" t="n">
         <v>8.593187636894015</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.9948276785279</v>
       </c>
       <c r="J40" t="n">
         <v>19.40798040283482</v>
@@ -25602,16 +25602,16 @@
         <v>205.787917330861</v>
       </c>
       <c r="T40" t="n">
-        <v>166.8679772352226</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2619755827628</v>
       </c>
       <c r="V40" t="n">
-        <v>27.93024381129675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>100.8768140091991</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>158.5264421509494</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.520581502495</v>
       </c>
       <c r="F41" t="n">
-        <v>182.6686462291802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>412.970891486719</v>
@@ -25648,7 +25648,7 @@
         <v>315.5937839772516</v>
       </c>
       <c r="I41" t="n">
-        <v>71.05073520384539</v>
+        <v>120.5773955598971</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>155.8831282137152</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>26.95170571303197</v>
+        <v>251.1591052255632</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>162.0305391435224</v>
       </c>
     </row>
     <row r="42">
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>100.1857948737624</v>
@@ -25763,16 +25763,16 @@
         <v>195.1358332523363</v>
       </c>
       <c r="U42" t="n">
-        <v>1.65190048831596</v>
+        <v>1.651900488316016</v>
       </c>
       <c r="V42" t="n">
-        <v>8.593187636894015</v>
+        <v>92.27639208491144</v>
       </c>
       <c r="W42" t="n">
-        <v>35.77869136122834</v>
+        <v>27.48758364838841</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25791,13 +25791,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.9449935067779</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>130.2620639006821</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>8.306039840223548</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T43" t="n">
-        <v>223.4763771529178</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>62.05457607023158</v>
+        <v>63.93286164927537</v>
       </c>
       <c r="V43" t="n">
-        <v>27.93024381129675</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>62.31559882405975</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>309.2206545914018</v>
+        <v>158.5264421509493</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,19 +25873,19 @@
         <v>130.4756421081517</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>187.8397874402859</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>188.7634919741878</v>
+        <v>412.970891486719</v>
       </c>
       <c r="H44" t="n">
         <v>315.5937839772516</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>120.5773955598971</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>125.0335692048817</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>145.5237011659378</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,25 +25946,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>127.2235966187542</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0958695452709</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>100.1857948737624</v>
       </c>
       <c r="I45" t="n">
-        <v>46.44034425129606</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>1.651900488315931</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>188.7833571951598</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>27.48758364838832</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26031,16 +26031,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9449935067779</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.9274073897678</v>
       </c>
       <c r="I46" t="n">
         <v>123.9948276785279</v>
@@ -26073,22 +26073,22 @@
         <v>130.2620639006821</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.787917330861</v>
       </c>
       <c r="T46" t="n">
-        <v>170.8876300215935</v>
+        <v>25.99449966228033</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2619755827628</v>
+        <v>62.05457607023155</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>27.93024381129672</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>1.50225587650587</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418144.5838531395</v>
+        <v>418144.5838531396</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>418144.5838531395</v>
+        <v>418144.5838531394</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418144.5838531394</v>
+        <v>418144.5838531396</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>418144.5838531395</v>
+        <v>418144.5838531396</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>418144.5838531397</v>
+        <v>418144.5838531395</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>418144.5838531395</v>
+        <v>418144.5838531396</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418144.5838531394</v>
+        <v>418144.5838531395</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418144.5838531396</v>
+        <v>418144.5838531395</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
         <v>573493.4371019269</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
         <v>268643.7460468176</v>
@@ -26328,10 +26328,10 @@
         <v>268643.7460468176</v>
       </c>
       <c r="G2" t="n">
-        <v>268643.7460468176</v>
+        <v>268643.7460468175</v>
       </c>
       <c r="H2" t="n">
-        <v>268643.7460468176</v>
+        <v>268643.7460468175</v>
       </c>
       <c r="I2" t="n">
         <v>268643.7460468176</v>
@@ -26340,22 +26340,22 @@
         <v>268643.7460468176</v>
       </c>
       <c r="K2" t="n">
+        <v>268643.7460468176</v>
+      </c>
+      <c r="L2" t="n">
         <v>268643.7460468175</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>268643.7460468176</v>
       </c>
-      <c r="M2" t="n">
-        <v>268643.7460468175</v>
-      </c>
       <c r="N2" t="n">
-        <v>268643.7460468175</v>
+        <v>268643.7460468176</v>
       </c>
       <c r="O2" t="n">
         <v>268643.7460468176</v>
       </c>
       <c r="P2" t="n">
-        <v>268643.7460468176</v>
+        <v>268643.7460468175</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55873.38078812083</v>
+        <v>55873.38078812086</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>447024.6202723929</v>
       </c>
       <c r="E4" t="n">
-        <v>15373.38656910873</v>
+        <v>15373.38656910874</v>
       </c>
       <c r="F4" t="n">
         <v>15373.38656910873</v>
       </c>
       <c r="G4" t="n">
-        <v>15373.38656910874</v>
+        <v>15373.38656910873</v>
       </c>
       <c r="H4" t="n">
         <v>15373.38656910873</v>
       </c>
       <c r="I4" t="n">
-        <v>15373.38656910872</v>
+        <v>15373.38656910873</v>
       </c>
       <c r="J4" t="n">
-        <v>15373.38656910872</v>
+        <v>15373.38656910873</v>
       </c>
       <c r="K4" t="n">
         <v>15373.38656910873</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>26276.82794095489</v>
+        <v>26276.8279409549</v>
       </c>
       <c r="F5" t="n">
         <v>26276.82794095489</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>92797.08105085276</v>
+        <v>92836.80325166602</v>
       </c>
       <c r="C6" t="n">
-        <v>92797.08105085288</v>
+        <v>92836.8032516659</v>
       </c>
       <c r="D6" t="n">
-        <v>92797.081050853</v>
+        <v>92836.8032516659</v>
       </c>
       <c r="E6" t="n">
-        <v>-316892.7487132541</v>
+        <v>-307054.2864428126</v>
       </c>
       <c r="F6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622605</v>
       </c>
       <c r="G6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622604</v>
       </c>
       <c r="H6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622604</v>
       </c>
       <c r="I6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622605</v>
       </c>
       <c r="J6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622605</v>
       </c>
       <c r="K6" t="n">
-        <v>216061.9067918188</v>
+        <v>225900.3690622605</v>
       </c>
       <c r="L6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622604</v>
       </c>
       <c r="M6" t="n">
-        <v>160188.526003698</v>
+        <v>170026.9882741396</v>
       </c>
       <c r="N6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622605</v>
       </c>
       <c r="O6" t="n">
-        <v>216061.906791819</v>
+        <v>225900.3690622605</v>
       </c>
       <c r="P6" t="n">
-        <v>216061.9067918189</v>
+        <v>225900.3690622604</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>580.046699568486</v>
+        <v>580.0466995684861</v>
       </c>
       <c r="F3" t="n">
         <v>580.046699568486</v>
       </c>
       <c r="G3" t="n">
-        <v>580.0466995684859</v>
+        <v>580.046699568486</v>
       </c>
       <c r="H3" t="n">
         <v>580.046699568486</v>
@@ -26810,13 +26810,13 @@
         <v>224.2073995125312</v>
       </c>
       <c r="I4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="J4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="K4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="L4" t="n">
         <v>224.2073995125313</v>
@@ -26828,7 +26828,7 @@
         <v>224.2073995125313</v>
       </c>
       <c r="O4" t="n">
-        <v>224.2073995125313</v>
+        <v>224.2073995125312</v>
       </c>
       <c r="P4" t="n">
         <v>224.2073995125313</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>580.046699568486</v>
+        <v>580.0466995684861</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>224.2073995125312</v>
+        <v>224.2073995125313</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>23.8810181385156</v>
       </c>
       <c r="I11" t="n">
-        <v>89.8984940105088</v>
+        <v>89.89849401050881</v>
       </c>
       <c r="J11" t="n">
         <v>197.9125168542746</v>
@@ -31770,19 +31770,19 @@
         <v>367.9827921292618</v>
       </c>
       <c r="M11" t="n">
-        <v>409.4517589371052</v>
+        <v>409.4517589371053</v>
       </c>
       <c r="N11" t="n">
         <v>416.0771164653423</v>
       </c>
       <c r="O11" t="n">
-        <v>392.8898225202804</v>
+        <v>392.8898225202805</v>
       </c>
       <c r="P11" t="n">
-        <v>335.3223736937598</v>
+        <v>335.3223736937599</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.8131378011109</v>
+        <v>251.813137801111</v>
       </c>
       <c r="R11" t="n">
         <v>146.4778230824881</v>
@@ -31791,7 +31791,7 @@
         <v>53.13694137253017</v>
       </c>
       <c r="T11" t="n">
-        <v>10.20765598939114</v>
+        <v>10.20765598939115</v>
       </c>
       <c r="U11" t="n">
         <v>0.1865476822732818</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.247647617939762</v>
+        <v>1.247647617939763</v>
       </c>
       <c r="H12" t="n">
         <v>12.04964936273402</v>
@@ -31846,16 +31846,16 @@
         <v>201.4677296038958</v>
       </c>
       <c r="L12" t="n">
-        <v>270.8982251145085</v>
+        <v>270.8982251145086</v>
       </c>
       <c r="M12" t="n">
-        <v>316.1254512648248</v>
+        <v>316.1254512648249</v>
       </c>
       <c r="N12" t="n">
         <v>324.4923512991666</v>
       </c>
       <c r="O12" t="n">
-        <v>296.8471067121855</v>
+        <v>296.8471067121856</v>
       </c>
       <c r="P12" t="n">
         <v>238.2459736397429</v>
@@ -31864,16 +31864,16 @@
         <v>159.2611240022757</v>
       </c>
       <c r="R12" t="n">
-        <v>77.46359508576879</v>
+        <v>77.4635950857688</v>
       </c>
       <c r="S12" t="n">
-        <v>23.17450728936355</v>
+        <v>23.17450728936356</v>
       </c>
       <c r="T12" t="n">
-        <v>5.028895442485268</v>
+        <v>5.028895442485269</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08208208012761598</v>
+        <v>0.082082080127616</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,13 +31913,13 @@
         <v>1.045985851680876</v>
       </c>
       <c r="H13" t="n">
-        <v>9.299765117671798</v>
+        <v>9.2997651176718</v>
       </c>
       <c r="I13" t="n">
-        <v>31.45564724873036</v>
+        <v>31.45564724873037</v>
       </c>
       <c r="J13" t="n">
-        <v>73.95119971383795</v>
+        <v>73.95119971383797</v>
       </c>
       <c r="K13" t="n">
         <v>121.5245380407418</v>
@@ -31928,28 +31928,28 @@
         <v>155.5095692580823</v>
       </c>
       <c r="M13" t="n">
-        <v>163.9630367321213</v>
+        <v>163.9630367321214</v>
       </c>
       <c r="N13" t="n">
         <v>160.0643621940382</v>
       </c>
       <c r="O13" t="n">
-        <v>147.8453456539479</v>
+        <v>147.845345653948</v>
       </c>
       <c r="P13" t="n">
-        <v>126.5072342796579</v>
+        <v>126.507234279658</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.58705163484139</v>
+        <v>87.5870516348414</v>
       </c>
       <c r="R13" t="n">
-        <v>47.03132747648739</v>
+        <v>47.0313274764874</v>
       </c>
       <c r="S13" t="n">
         <v>18.22868070611127</v>
       </c>
       <c r="T13" t="n">
-        <v>4.469212275363743</v>
+        <v>4.469212275363744</v>
       </c>
       <c r="U13" t="n">
         <v>0.05705377372804787</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.331846028416022</v>
+        <v>2.331846028416023</v>
       </c>
       <c r="H17" t="n">
-        <v>23.88101813851559</v>
+        <v>23.8810181385156</v>
       </c>
       <c r="I17" t="n">
-        <v>89.89849401050877</v>
+        <v>89.8984940105088</v>
       </c>
       <c r="J17" t="n">
-        <v>197.9125168542745</v>
+        <v>197.9125168542746</v>
       </c>
       <c r="K17" t="n">
-        <v>296.6195592371248</v>
+        <v>296.6195592371249</v>
       </c>
       <c r="L17" t="n">
-        <v>367.9827921292617</v>
+        <v>367.9827921292618</v>
       </c>
       <c r="M17" t="n">
-        <v>409.4517589371051</v>
+        <v>409.4517589371052</v>
       </c>
       <c r="N17" t="n">
-        <v>416.0771164653422</v>
+        <v>416.0771164653423</v>
       </c>
       <c r="O17" t="n">
-        <v>392.8898225202803</v>
+        <v>392.8898225202804</v>
       </c>
       <c r="P17" t="n">
-        <v>335.3223736937597</v>
+        <v>335.3223736937598</v>
       </c>
       <c r="Q17" t="n">
         <v>251.8131378011109</v>
@@ -32262,13 +32262,13 @@
         <v>146.4778230824881</v>
       </c>
       <c r="S17" t="n">
-        <v>53.13694137253015</v>
+        <v>53.13694137253017</v>
       </c>
       <c r="T17" t="n">
         <v>10.20765598939114</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1865476822732817</v>
+        <v>0.1865476822732818</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,13 +32311,13 @@
         <v>12.04964936273402</v>
       </c>
       <c r="I18" t="n">
-        <v>42.95628860011901</v>
+        <v>42.95628860011902</v>
       </c>
       <c r="J18" t="n">
         <v>117.8753392019317</v>
       </c>
       <c r="K18" t="n">
-        <v>201.4677296038957</v>
+        <v>201.4677296038958</v>
       </c>
       <c r="L18" t="n">
         <v>270.8982251145085</v>
@@ -32326,7 +32326,7 @@
         <v>316.1254512648248</v>
       </c>
       <c r="N18" t="n">
-        <v>324.4923512991665</v>
+        <v>324.4923512991666</v>
       </c>
       <c r="O18" t="n">
         <v>296.8471067121855</v>
@@ -32335,19 +32335,19 @@
         <v>238.2459736397429</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2611240022756</v>
+        <v>159.2611240022757</v>
       </c>
       <c r="R18" t="n">
-        <v>77.46359508576877</v>
+        <v>77.46359508576879</v>
       </c>
       <c r="S18" t="n">
         <v>23.17450728936355</v>
       </c>
       <c r="T18" t="n">
-        <v>5.028895442485267</v>
+        <v>5.028895442485268</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08208208012761596</v>
+        <v>0.08208208012761598</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,13 +32387,13 @@
         <v>1.045985851680876</v>
       </c>
       <c r="H19" t="n">
-        <v>9.299765117671797</v>
+        <v>9.299765117671798</v>
       </c>
       <c r="I19" t="n">
         <v>31.45564724873036</v>
       </c>
       <c r="J19" t="n">
-        <v>73.95119971383794</v>
+        <v>73.95119971383795</v>
       </c>
       <c r="K19" t="n">
         <v>121.5245380407418</v>
@@ -32414,19 +32414,19 @@
         <v>126.5072342796579</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.58705163484137</v>
+        <v>87.58705163484139</v>
       </c>
       <c r="R19" t="n">
-        <v>47.03132747648738</v>
+        <v>47.03132747648739</v>
       </c>
       <c r="S19" t="n">
-        <v>18.22868070611126</v>
+        <v>18.22868070611127</v>
       </c>
       <c r="T19" t="n">
-        <v>4.469212275363742</v>
+        <v>4.469212275363743</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05705377372804785</v>
+        <v>0.05705377372804787</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>16.86661232758829</v>
+        <v>16.86661232758831</v>
       </c>
       <c r="K11" t="n">
-        <v>76.52970819214431</v>
+        <v>76.52970819214437</v>
       </c>
       <c r="L11" t="n">
-        <v>132.2163771592745</v>
+        <v>132.2163771592746</v>
       </c>
       <c r="M11" t="n">
-        <v>179.1055257098324</v>
+        <v>179.1055257098326</v>
       </c>
       <c r="N11" t="n">
         <v>186.6640528687514</v>
@@ -35430,7 +35430,7 @@
         <v>104.0893779384903</v>
       </c>
       <c r="Q11" t="n">
-        <v>29.50744792666143</v>
+        <v>29.50744792666148</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>46.85674228911714</v>
       </c>
       <c r="K12" t="n">
-        <v>110.4830329186538</v>
+        <v>63.62629062953681</v>
       </c>
       <c r="L12" t="n">
         <v>132.3438453346344</v>
       </c>
       <c r="M12" t="n">
-        <v>173.9914173428065</v>
+        <v>173.9914173428066</v>
       </c>
       <c r="N12" t="n">
         <v>193.1506392158333</v>
@@ -35506,10 +35506,10 @@
         <v>154.2508622677411</v>
       </c>
       <c r="P12" t="n">
-        <v>104.2715662254126</v>
+        <v>104.2715662254127</v>
       </c>
       <c r="Q12" t="n">
-        <v>19.27934991625415</v>
+        <v>19.27934991625418</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>99.25504621485894</v>
+        <v>99.25504621485895</v>
       </c>
       <c r="L13" t="n">
-        <v>183.0995945183984</v>
+        <v>183.0995945183985</v>
       </c>
       <c r="M13" t="n">
-        <v>203.5469136939619</v>
+        <v>105.0032708022729</v>
       </c>
       <c r="N13" t="n">
         <v>204.1965345732668</v>
@@ -35585,7 +35585,7 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P13" t="n">
-        <v>25.24215065286212</v>
+        <v>123.7857935445515</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>63.62629062953678</v>
       </c>
       <c r="L15" t="n">
-        <v>132.3438453346344</v>
+        <v>179.2005876237514</v>
       </c>
       <c r="M15" t="n">
         <v>173.9914173428065</v>
@@ -35746,7 +35746,7 @@
         <v>104.2715662254126</v>
       </c>
       <c r="Q15" t="n">
-        <v>66.13609220537123</v>
+        <v>19.27934991625415</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>99.25504621485894</v>
+        <v>0.7114033231696181</v>
       </c>
       <c r="L16" t="n">
         <v>183.0995945183984</v>
@@ -35822,7 +35822,7 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P16" t="n">
-        <v>25.24215065286212</v>
+        <v>123.7857935445514</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>16.86661232758823</v>
+        <v>16.86661232758829</v>
       </c>
       <c r="K17" t="n">
-        <v>76.52970819214426</v>
+        <v>76.52970819214431</v>
       </c>
       <c r="L17" t="n">
         <v>132.2163771592745</v>
@@ -35895,16 +35895,16 @@
         <v>179.1055257098324</v>
       </c>
       <c r="N17" t="n">
-        <v>186.6640528687512</v>
+        <v>186.6640528687514</v>
       </c>
       <c r="O17" t="n">
-        <v>162.7916110985936</v>
+        <v>162.7916110985937</v>
       </c>
       <c r="P17" t="n">
-        <v>104.0893779384902</v>
+        <v>104.0893779384903</v>
       </c>
       <c r="Q17" t="n">
-        <v>29.50744792666137</v>
+        <v>29.50744792666143</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>63.62629062953673</v>
+        <v>63.62629062953678</v>
       </c>
       <c r="L18" t="n">
-        <v>132.3438453346343</v>
+        <v>132.3438453346344</v>
       </c>
       <c r="M18" t="n">
         <v>173.9914173428065</v>
       </c>
       <c r="N18" t="n">
-        <v>193.1506392158332</v>
+        <v>193.1506392158333</v>
       </c>
       <c r="O18" t="n">
-        <v>201.1076045568585</v>
+        <v>154.2508622677411</v>
       </c>
       <c r="P18" t="n">
         <v>104.2715662254126</v>
       </c>
       <c r="Q18" t="n">
-        <v>19.27934991625409</v>
+        <v>66.13609220537123</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7114033231697903</v>
+        <v>0.7114033231696181</v>
       </c>
       <c r="L19" t="n">
         <v>183.0995945183984</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>16.86661232758764</v>
+        <v>16.86661232758829</v>
       </c>
       <c r="K23" t="n">
         <v>76.52970819214431</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>46.85674228911705</v>
       </c>
       <c r="K24" t="n">
-        <v>110.4830329186536</v>
+        <v>63.62629062953678</v>
       </c>
       <c r="L24" t="n">
         <v>132.3438453346344</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7114033231693956</v>
+        <v>0.7114033231696181</v>
       </c>
       <c r="L25" t="n">
         <v>183.0995945183984</v>
@@ -36609,7 +36609,7 @@
         <v>186.6640528687514</v>
       </c>
       <c r="O26" t="n">
-        <v>162.7916110985937</v>
+        <v>162.7916110985932</v>
       </c>
       <c r="P26" t="n">
         <v>104.0893779384903</v>
@@ -36679,10 +36679,10 @@
         <v>63.62629062953678</v>
       </c>
       <c r="L27" t="n">
-        <v>132.3438453346344</v>
+        <v>179.2005876237514</v>
       </c>
       <c r="M27" t="n">
-        <v>220.8481596319234</v>
+        <v>173.9914173428065</v>
       </c>
       <c r="N27" t="n">
         <v>193.1506392158333</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7114033231693956</v>
+        <v>0.7114033231696181</v>
       </c>
       <c r="L28" t="n">
         <v>183.0995945183984</v>
@@ -36834,7 +36834,7 @@
         <v>16.86661232758829</v>
       </c>
       <c r="K29" t="n">
-        <v>76.52970819214366</v>
+        <v>76.52970819214431</v>
       </c>
       <c r="L29" t="n">
         <v>132.2163771592745</v>
@@ -36852,7 +36852,7 @@
         <v>104.0893779384903</v>
       </c>
       <c r="Q29" t="n">
-        <v>29.50744792666143</v>
+        <v>29.50744792666099</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36925,10 +36925,10 @@
         <v>193.1506392158333</v>
       </c>
       <c r="O30" t="n">
-        <v>154.2508622677411</v>
+        <v>201.1076045568581</v>
       </c>
       <c r="P30" t="n">
-        <v>151.1283085145295</v>
+        <v>104.2715662254126</v>
       </c>
       <c r="Q30" t="n">
         <v>19.27934991625415</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7114033231693956</v>
+        <v>0.7114033231696181</v>
       </c>
       <c r="L31" t="n">
         <v>183.0995945183984</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>16.86661232758829</v>
+        <v>16.86661232758786</v>
       </c>
       <c r="K32" t="n">
         <v>76.52970819214431</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>63.62629062953678</v>
+        <v>110.4830329186538</v>
       </c>
       <c r="L33" t="n">
         <v>132.3438453346344</v>
@@ -37168,7 +37168,7 @@
         <v>104.2715662254126</v>
       </c>
       <c r="Q33" t="n">
-        <v>66.13609220537123</v>
+        <v>19.27934991625415</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>46.85674228911705</v>
       </c>
       <c r="K36" t="n">
         <v>63.62629062953678</v>
@@ -37393,7 +37393,7 @@
         <v>132.3438453346344</v>
       </c>
       <c r="M36" t="n">
-        <v>220.8481596319236</v>
+        <v>173.9914173428065</v>
       </c>
       <c r="N36" t="n">
         <v>193.1506392158333</v>
@@ -37627,7 +37627,7 @@
         <v>63.62629062953678</v>
       </c>
       <c r="L39" t="n">
-        <v>179.2005876237514</v>
+        <v>132.3438453346344</v>
       </c>
       <c r="M39" t="n">
         <v>173.9914173428065</v>
@@ -37639,7 +37639,7 @@
         <v>154.2508622677411</v>
       </c>
       <c r="P39" t="n">
-        <v>104.2715662254126</v>
+        <v>151.1283085145297</v>
       </c>
       <c r="Q39" t="n">
         <v>19.27934991625415</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7114033231696181</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>183.0995945183984</v>
@@ -37721,7 +37721,7 @@
         <v>123.7857935445514</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>0.7114033231696432</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>132.3438453346344</v>
       </c>
       <c r="M42" t="n">
-        <v>189.7913993352256</v>
+        <v>173.9914173428065</v>
       </c>
       <c r="N42" t="n">
-        <v>224.2073995125313</v>
+        <v>193.1506392158333</v>
       </c>
       <c r="O42" t="n">
         <v>154.2508622677411</v>
       </c>
       <c r="P42" t="n">
-        <v>104.2715662254126</v>
+        <v>151.1283085145295</v>
       </c>
       <c r="Q42" t="n">
         <v>19.27934991625415</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7114033231696181</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>183.0995945183984</v>
@@ -37955,10 +37955,10 @@
         <v>172.4304735679876</v>
       </c>
       <c r="P43" t="n">
-        <v>123.7857935445514</v>
+        <v>123.0721884845739</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.425008383147002</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>154.2508622677411</v>
       </c>
       <c r="P45" t="n">
-        <v>104.2715662254126</v>
+        <v>151.1283085145298</v>
       </c>
       <c r="Q45" t="n">
-        <v>66.13609220537134</v>
+        <v>19.27934991625415</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.7114033231697329</v>
       </c>
       <c r="L46" t="n">
         <v>183.0995945183984</v>
@@ -38186,7 +38186,7 @@
         <v>203.5469136939619</v>
       </c>
       <c r="N46" t="n">
-        <v>203.4829295132896</v>
+        <v>204.1965345732668</v>
       </c>
       <c r="O46" t="n">
         <v>172.4304735679876</v>
@@ -38195,7 +38195,7 @@
         <v>123.7857935445514</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.425008383147002</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
